--- a/Gantt_Chart.xlsx
+++ b/Gantt_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\temp\Local\Courses\CPS353\Gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linja\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792CB114-5869-4D21-8AA9-F09891FFF6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FDB6CC-EE3F-4094-822A-43072087726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1665" windowWidth="21195" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8832" yWindow="0" windowWidth="14208" windowHeight="10716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -41,9 +41,6 @@
     <t>PROJECT TITLE</t>
   </si>
   <si>
-    <t>Place Title Here</t>
-  </si>
-  <si>
     <t>ORGANIZATION NAME</t>
   </si>
   <si>
@@ -62,13 +59,73 @@
     <t>Group Leader</t>
   </si>
   <si>
-    <t>GL</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
     <t>Group Members</t>
+  </si>
+  <si>
+    <t>WBS NUMBER</t>
+  </si>
+  <si>
+    <t>TASK TITLE</t>
+  </si>
+  <si>
+    <t>TASK OWNER</t>
+  </si>
+  <si>
+    <t>START DATE</t>
+  </si>
+  <si>
+    <t>DUE DATE</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>PCT OF TASK COMPLETE</t>
+  </si>
+  <si>
+    <t>Project Conception and Initiation</t>
+  </si>
+  <si>
+    <t>Setting up Github</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Setting up Webex Account</t>
+  </si>
+  <si>
+    <t>Setting up XAMPP / Unreal Engine</t>
+  </si>
+  <si>
+    <t>Setting up Discord</t>
+  </si>
+  <si>
+    <t>Assigning Group Leader</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Coding and Assembly</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.3.1</t>
+  </si>
+  <si>
+    <t>Jacy Lin</t>
   </si>
   <si>
     <r>
@@ -78,7 +135,7 @@
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>GM</t>
+      <t>Daniel Amoruso</t>
     </r>
     <r>
       <rPr>
@@ -87,7 +144,7 @@
         <color rgb="FF000000"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>,</t>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -96,7 +153,7 @@
         <color theme="4" tint="-0.249977111117893"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>GM</t>
+      <t>Angel Flores</t>
     </r>
     <r>
       <rPr>
@@ -105,110 +162,116 @@
         <color rgb="FF000000"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>,GM…</t>
+      <t xml:space="preserve">, Ramses Terry, </t>
     </r>
-  </si>
-  <si>
-    <t>WBS NUMBER</t>
-  </si>
-  <si>
-    <t>TASK TITLE</t>
-  </si>
-  <si>
-    <t>TASK OWNER</t>
-  </si>
-  <si>
-    <t>START DATE</t>
-  </si>
-  <si>
-    <t>DUE DATE</t>
-  </si>
-  <si>
-    <t>DURATION</t>
-  </si>
-  <si>
-    <t>PCT OF TASK COMPLETE</t>
-  </si>
-  <si>
-    <t>W1 9/8/2021</t>
-  </si>
-  <si>
-    <t>W2 9/15/2021</t>
-  </si>
-  <si>
-    <t>W3 9/22/2021</t>
-  </si>
-  <si>
-    <t>W4 9/29/2021</t>
-  </si>
-  <si>
-    <t>W5 10/6/2021</t>
-  </si>
-  <si>
-    <t>W6 10/13/2021</t>
-  </si>
-  <si>
-    <t>W7 10/20/2021</t>
-  </si>
-  <si>
-    <t>W8 10/27/2021</t>
-  </si>
-  <si>
-    <t>W9 11/3/2021</t>
-  </si>
-  <si>
-    <t>W10 11/10/2021</t>
-  </si>
-  <si>
-    <t>W11 11/17/2021</t>
-  </si>
-  <si>
-    <t>W12 11/24/2021</t>
-  </si>
-  <si>
-    <t>W13 12/1/2021</t>
-  </si>
-  <si>
-    <t>W14 12/8/2021</t>
-  </si>
-  <si>
-    <t>Project Conception and Initiation</t>
-  </si>
-  <si>
-    <t>Setting up Github</t>
-  </si>
-  <si>
-    <t>1.1.1</t>
-  </si>
-  <si>
-    <t>Setting up Webex Account</t>
-  </si>
-  <si>
-    <t>Setting up XAMPP / Unreal Engine</t>
-  </si>
-  <si>
-    <t>Setting up Discord</t>
-  </si>
-  <si>
-    <t>Assigning Group Leader</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>2.3.1</t>
-  </si>
-  <si>
-    <t>Coding and Assembly</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Max</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Zedlovich</t>
+    </r>
+  </si>
+  <si>
+    <t>Edu Planner (Cloud Based)</t>
+  </si>
+  <si>
+    <t>W1 9/4/2023</t>
+  </si>
+  <si>
+    <t>W2 9/11/2023</t>
+  </si>
+  <si>
+    <t>W3 9/18/2023</t>
+  </si>
+  <si>
+    <t>W4 9/25/2023</t>
+  </si>
+  <si>
+    <t>W5 10/2/2023</t>
+  </si>
+  <si>
+    <t>W6 10/9/2023</t>
+  </si>
+  <si>
+    <t>W7 10/16/2023</t>
+  </si>
+  <si>
+    <t>W8 10/23/2023</t>
+  </si>
+  <si>
+    <t>W9 10/30/2023</t>
+  </si>
+  <si>
+    <t>W10 11/06/2023</t>
+  </si>
+  <si>
+    <t>W11 11/13/2023</t>
+  </si>
+  <si>
+    <t>W12 11/20/2023</t>
+  </si>
+  <si>
+    <t>W13 11/27/2023</t>
+  </si>
+  <si>
+    <t>W14 12/4/2023</t>
+  </si>
+  <si>
+    <t>Create a Template</t>
+  </si>
+  <si>
+    <t>Create a Theme</t>
+  </si>
+  <si>
+    <t>Jacy</t>
+  </si>
+  <si>
+    <t>Data Management</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>1 Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Week</t>
+  </si>
+  <si>
+    <t>Angel</t>
   </si>
 </sst>
 </file>
@@ -219,7 +282,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -395,8 +458,14 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +536,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -620,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -739,12 +820,6 @@
     <xf numFmtId="0" fontId="27" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,27 +845,56 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -806,18 +910,10 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,6 +929,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1137,24 +1237,24 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BZ37"/>
+  <dimension ref="A1:BZ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="81" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="9" max="78" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
+    <col min="9" max="78" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1234,40 +1334,40 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -1316,7 +1416,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1396,43 +1496,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="55" t="s">
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -1484,42 +1584,42 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="56" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="57">
-        <v>44585</v>
-      </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="68">
+        <v>45179</v>
+      </c>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -1572,13 +1672,13 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -1586,13 +1686,13 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -1658,13 +1758,13 @@
       <c r="BY6" s="21"/>
       <c r="BZ6" s="21"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -1742,215 +1842,215 @@
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="17.25" customHeight="1">
+    <row r="8" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="F8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="G8" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="H8" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="69"/>
-      <c r="BD8" s="69"/>
-      <c r="BE8" s="69"/>
-      <c r="BF8" s="69"/>
-      <c r="BG8" s="69"/>
-      <c r="BH8" s="69"/>
-      <c r="BI8" s="69"/>
-      <c r="BJ8" s="69"/>
-      <c r="BK8" s="69"/>
-      <c r="BL8" s="69"/>
-      <c r="BM8" s="69"/>
-      <c r="BN8" s="69"/>
-      <c r="BO8" s="69"/>
-      <c r="BP8" s="69"/>
-      <c r="BQ8" s="69"/>
-      <c r="BR8" s="69"/>
-      <c r="BS8" s="69"/>
-      <c r="BT8" s="69"/>
-      <c r="BU8" s="69"/>
-      <c r="BV8" s="69"/>
-      <c r="BW8" s="69"/>
-      <c r="BX8" s="69"/>
-      <c r="BY8" s="69"/>
-      <c r="BZ8" s="70"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="59"/>
+      <c r="AO8" s="59"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="59"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="59"/>
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="59"/>
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="59"/>
+      <c r="BB8" s="58"/>
+      <c r="BC8" s="59"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="59"/>
+      <c r="BG8" s="59"/>
+      <c r="BH8" s="59"/>
+      <c r="BI8" s="59"/>
+      <c r="BJ8" s="59"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="59"/>
+      <c r="BN8" s="59"/>
+      <c r="BO8" s="59"/>
+      <c r="BP8" s="59"/>
+      <c r="BQ8" s="59"/>
+      <c r="BR8" s="59"/>
+      <c r="BS8" s="59"/>
+      <c r="BT8" s="59"/>
+      <c r="BU8" s="59"/>
+      <c r="BV8" s="59"/>
+      <c r="BW8" s="59"/>
+      <c r="BX8" s="59"/>
+      <c r="BY8" s="59"/>
+      <c r="BZ8" s="60"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="74"/>
-      <c r="BG9" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
-      <c r="BJ9" s="73"/>
-      <c r="BK9" s="74"/>
-      <c r="BL9" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="BM9" s="73"/>
-      <c r="BN9" s="73"/>
-      <c r="BO9" s="73"/>
-      <c r="BP9" s="74"/>
-      <c r="BQ9" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="BR9" s="73"/>
-      <c r="BS9" s="73"/>
-      <c r="BT9" s="73"/>
-      <c r="BU9" s="74"/>
-      <c r="BV9" s="54" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="BW9" s="73"/>
-      <c r="BX9" s="73"/>
-      <c r="BY9" s="73"/>
-      <c r="BZ9" s="74"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="62"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC9" s="62"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="63"/>
+      <c r="BG9" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="62"/>
+      <c r="BJ9" s="62"/>
+      <c r="BK9" s="63"/>
+      <c r="BL9" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM9" s="62"/>
+      <c r="BN9" s="62"/>
+      <c r="BO9" s="62"/>
+      <c r="BP9" s="63"/>
+      <c r="BQ9" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR9" s="62"/>
+      <c r="BS9" s="62"/>
+      <c r="BT9" s="62"/>
+      <c r="BU9" s="63"/>
+      <c r="BV9" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="BW9" s="62"/>
+      <c r="BX9" s="62"/>
+      <c r="BY9" s="62"/>
+      <c r="BZ9" s="63"/>
     </row>
-    <row r="10" spans="1:78" ht="21" customHeight="1">
+    <row r="10" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="26">
         <v>1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -2028,15 +2128,17 @@
       <c r="BY10" s="29"/>
       <c r="BZ10" s="29"/>
     </row>
-    <row r="11" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="11" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="33">
         <v>1.1000000000000001</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="34"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="36">
@@ -2044,16 +2146,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="38"/>
@@ -2115,15 +2217,17 @@
       <c r="BY11" s="38"/>
       <c r="BZ11" s="38"/>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="33" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="34"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36">
@@ -2131,16 +2235,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
@@ -2202,15 +2306,17 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="33">
         <v>1.2</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="36">
@@ -2218,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
       <c r="U13" s="38"/>
@@ -2289,15 +2395,17 @@
       <c r="BY13" s="38"/>
       <c r="BZ13" s="38"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
         <v>1.3</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="36">
@@ -2305,16 +2413,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
       <c r="U14" s="38"/>
@@ -2376,15 +2484,17 @@
       <c r="BY14" s="38"/>
       <c r="BZ14" s="38"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="33">
         <v>1.4</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
       <c r="G15" s="36">
@@ -2392,16 +2502,16 @@
         <v>0</v>
       </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
       <c r="U15" s="38"/>
@@ -2463,7 +2573,7 @@
       <c r="BY15" s="38"/>
       <c r="BZ15" s="38"/>
     </row>
-    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
         <v>1.5</v>
@@ -2477,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
       <c r="U16" s="38"/>
@@ -2548,7 +2658,7 @@
       <c r="BY16" s="38"/>
       <c r="BZ16" s="38"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>1.6</v>
@@ -2562,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
@@ -2633,24 +2743,24 @@
       <c r="BY17" s="38"/>
       <c r="BZ17" s="38"/>
     </row>
-    <row r="18" spans="1:78" ht="21" customHeight="1">
+    <row r="18" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="26">
         <v>2</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="29"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="54"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -2717,54 +2827,62 @@
       <c r="BY18" s="29"/>
       <c r="BZ18" s="29"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>2.1</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36">
-        <v>0</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
+      <c r="C19" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="35">
+        <v>45180</v>
+      </c>
+      <c r="F19" s="35">
+        <v>45187</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
       <c r="V19" s="38"/>
       <c r="W19" s="38"/>
       <c r="X19" s="38"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
       <c r="AC19" s="39"/>
       <c r="AD19" s="39"/>
       <c r="AE19" s="39"/>
       <c r="AF19" s="39"/>
       <c r="AG19" s="39"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43"/>
+      <c r="AJ19" s="43"/>
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
       <c r="AR19" s="40"/>
       <c r="AS19" s="40"/>
       <c r="AT19" s="40"/>
@@ -2801,30 +2919,37 @@
       <c r="BY19" s="38"/>
       <c r="BZ19" s="38"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="33">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36">
-        <f t="shared" ref="G20:G21" si="1">DAYS360(E20,F20)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
+      <c r="C20" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="35">
+        <v>45187</v>
+      </c>
+      <c r="F20" s="35">
+        <v>45194</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
       <c r="U20" s="38"/>
@@ -2842,14 +2967,14 @@
       <c r="AG20" s="39"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
+      <c r="AJ20" s="43"/>
+      <c r="AK20" s="43"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
+      <c r="AQ20" s="43"/>
       <c r="AR20" s="40"/>
       <c r="AS20" s="40"/>
       <c r="AT20" s="40"/>
@@ -2886,30 +3011,30 @@
       <c r="BY20" s="38"/>
       <c r="BZ20" s="38"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="34"/>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
       <c r="G21" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G21" si="1">DAYS360(E21,F21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
       <c r="U21" s="38"/>
@@ -2927,14 +3052,14 @@
       <c r="AG21" s="39"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
+      <c r="AJ21" s="43"/>
+      <c r="AK21" s="43"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="43"/>
+      <c r="AN21" s="43"/>
+      <c r="AO21" s="43"/>
+      <c r="AP21" s="43"/>
+      <c r="AQ21" s="43"/>
       <c r="AR21" s="40"/>
       <c r="AS21" s="40"/>
       <c r="AT21" s="40"/>
@@ -2971,29 +3096,29 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="22" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="47"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="45"/>
       <c r="D22" s="34"/>
       <c r="E22" s="35"/>
       <c r="F22" s="35"/>
       <c r="G22" s="36">
         <v>0</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
@@ -3011,14 +3136,14 @@
       <c r="AG22" s="39"/>
       <c r="AH22" s="38"/>
       <c r="AI22" s="38"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
       <c r="AR22" s="40"/>
       <c r="AS22" s="40"/>
       <c r="AT22" s="40"/>
@@ -3055,12 +3180,12 @@
       <c r="BY22" s="38"/>
       <c r="BZ22" s="38"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
         <v>2.4</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="34"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -3068,17 +3193,17 @@
         <f t="shared" ref="G23:G24" si="2">DAYS360(E23,F23)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
@@ -3096,14 +3221,14 @@
       <c r="AG23" s="39"/>
       <c r="AH23" s="38"/>
       <c r="AI23" s="38"/>
-      <c r="AJ23" s="45"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
       <c r="AR23" s="40"/>
       <c r="AS23" s="40"/>
       <c r="AT23" s="40"/>
@@ -3140,12 +3265,12 @@
       <c r="BY23" s="38"/>
       <c r="BZ23" s="38"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.5</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="34"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
@@ -3153,17 +3278,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
@@ -3181,14 +3306,14 @@
       <c r="AG24" s="39"/>
       <c r="AH24" s="38"/>
       <c r="AI24" s="38"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="45"/>
-      <c r="AL24" s="45"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="43"/>
       <c r="AR24" s="40"/>
       <c r="AS24" s="40"/>
       <c r="AT24" s="40"/>
@@ -3225,29 +3350,29 @@
       <c r="BY24" s="38"/>
       <c r="BZ24" s="38"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
         <v>2.6</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="36">
         <v>0</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
       <c r="U25" s="38"/>
@@ -3265,14 +3390,14 @@
       <c r="AG25" s="39"/>
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
       <c r="AR25" s="40"/>
       <c r="AS25" s="40"/>
       <c r="AT25" s="40"/>
@@ -3309,12 +3434,12 @@
       <c r="BY25" s="38"/>
       <c r="BZ25" s="38"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="33">
         <v>2.7</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="34"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
@@ -3322,17 +3447,17 @@
         <f t="shared" ref="G26:G27" si="3">DAYS360(E26,F26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
       <c r="S26" s="38"/>
       <c r="T26" s="38"/>
       <c r="U26" s="38"/>
@@ -3350,14 +3475,14 @@
       <c r="AG26" s="39"/>
       <c r="AH26" s="38"/>
       <c r="AI26" s="38"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
       <c r="AR26" s="40"/>
       <c r="AS26" s="40"/>
       <c r="AT26" s="40"/>
@@ -3394,12 +3519,12 @@
       <c r="BY26" s="38"/>
       <c r="BZ26" s="38"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>2.8</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="34"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
@@ -3407,17 +3532,17 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
       <c r="S27" s="38"/>
       <c r="T27" s="38"/>
       <c r="U27" s="38"/>
@@ -3435,14 +3560,14 @@
       <c r="AG27" s="39"/>
       <c r="AH27" s="38"/>
       <c r="AI27" s="38"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
       <c r="AR27" s="40"/>
       <c r="AS27" s="40"/>
       <c r="AT27" s="40"/>
@@ -3479,29 +3604,29 @@
       <c r="BY27" s="38"/>
       <c r="BZ27" s="38"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <v>2.9</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="34"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="36">
         <v>0</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
       <c r="S28" s="38"/>
       <c r="T28" s="38"/>
       <c r="U28" s="38"/>
@@ -3519,14 +3644,14 @@
       <c r="AG28" s="39"/>
       <c r="AH28" s="38"/>
       <c r="AI28" s="38"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
       <c r="AR28" s="40"/>
       <c r="AS28" s="40"/>
       <c r="AT28" s="40"/>
@@ -3563,12 +3688,12 @@
       <c r="BY28" s="38"/>
       <c r="BZ28" s="38"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
-      <c r="B29" s="46">
+      <c r="B29" s="44">
         <v>2.1</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="34"/>
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
@@ -3576,17 +3701,17 @@
         <f>DAYS360(E29,F29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
       <c r="U29" s="38"/>
@@ -3604,14 +3729,14 @@
       <c r="AG29" s="39"/>
       <c r="AH29" s="38"/>
       <c r="AI29" s="38"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
       <c r="AR29" s="40"/>
       <c r="AS29" s="40"/>
       <c r="AT29" s="40"/>
@@ -3648,29 +3773,29 @@
       <c r="BY29" s="38"/>
       <c r="BZ29" s="38"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
-      <c r="B30" s="46">
+      <c r="B30" s="44">
         <v>2.11</v>
       </c>
-      <c r="C30" s="47"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="34"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="36">
         <v>0</v>
       </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
       <c r="U30" s="38"/>
@@ -3732,24 +3857,24 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="21" customHeight="1">
+    <row r="31" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="26">
         <v>3</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="29"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="54"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
@@ -3816,12 +3941,12 @@
       <c r="BY31" s="29"/>
       <c r="BZ31" s="29"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
         <v>3.1</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="34"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
@@ -3830,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="37"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
       <c r="U32" s="38"/>
@@ -3901,12 +4026,12 @@
       <c r="BY32" s="38"/>
       <c r="BZ32" s="38"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="33">
         <v>3.2</v>
       </c>
-      <c r="C33" s="47"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="34"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
@@ -3914,16 +4039,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="37"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="38"/>
@@ -3985,12 +4110,12 @@
       <c r="BY33" s="38"/>
       <c r="BZ33" s="38"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="47"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="45"/>
       <c r="D34" s="34"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
@@ -3999,16 +4124,16 @@
         <v>0</v>
       </c>
       <c r="H34" s="37"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="38"/>
@@ -4070,12 +4195,12 @@
       <c r="BY34" s="38"/>
       <c r="BZ34" s="38"/>
     </row>
-    <row r="35" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="47"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="45"/>
       <c r="D35" s="34"/>
       <c r="E35" s="35"/>
       <c r="F35" s="35"/>
@@ -4083,16 +4208,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
       <c r="S35" s="38"/>
       <c r="T35" s="38"/>
       <c r="U35" s="38"/>
@@ -4154,12 +4279,12 @@
       <c r="BY35" s="38"/>
       <c r="BZ35" s="38"/>
     </row>
-    <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="33">
         <v>3.3</v>
       </c>
-      <c r="C36" s="47"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
@@ -4168,16 +4293,16 @@
         <v>0</v>
       </c>
       <c r="H36" s="37"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
       <c r="S36" s="38"/>
       <c r="T36" s="38"/>
       <c r="U36" s="38"/>
@@ -4239,12 +4364,12 @@
       <c r="BY36" s="38"/>
       <c r="BZ36" s="38"/>
     </row>
-    <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="47"/>
+        <v>29</v>
+      </c>
+      <c r="C37" s="45"/>
       <c r="D37" s="34"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
@@ -4252,16 +4377,16 @@
         <v>0</v>
       </c>
       <c r="H37" s="37"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
       <c r="S37" s="38"/>
       <c r="T37" s="38"/>
       <c r="U37" s="38"/>
@@ -4323,6 +4448,603 @@
       <c r="BY37" s="38"/>
       <c r="BZ37" s="38"/>
     </row>
+    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="26">
+        <v>4</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="29"/>
+      <c r="AT38" s="29"/>
+      <c r="AU38" s="29"/>
+      <c r="AV38" s="29"/>
+      <c r="AW38" s="29"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="29"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="29"/>
+      <c r="BB38" s="29"/>
+      <c r="BC38" s="29"/>
+      <c r="BD38" s="29"/>
+      <c r="BE38" s="29"/>
+      <c r="BF38" s="29"/>
+      <c r="BG38" s="29"/>
+      <c r="BH38" s="29"/>
+      <c r="BI38" s="29"/>
+      <c r="BJ38" s="29"/>
+      <c r="BK38" s="29"/>
+      <c r="BL38" s="29"/>
+      <c r="BM38" s="29"/>
+      <c r="BN38" s="29"/>
+      <c r="BO38" s="29"/>
+      <c r="BP38" s="29"/>
+      <c r="BQ38" s="29"/>
+      <c r="BR38" s="29"/>
+      <c r="BS38" s="29"/>
+      <c r="BT38" s="29"/>
+      <c r="BU38" s="29"/>
+      <c r="BV38" s="29"/>
+      <c r="BW38" s="29"/>
+      <c r="BX38" s="29"/>
+      <c r="BY38" s="29"/>
+      <c r="BZ38" s="29"/>
+    </row>
+    <row r="39" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36">
+        <f>DAYS360(E39,F39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="40"/>
+      <c r="AU39" s="40"/>
+      <c r="AV39" s="40"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="38"/>
+      <c r="BF39" s="38"/>
+      <c r="BG39" s="41"/>
+      <c r="BH39" s="41"/>
+      <c r="BI39" s="41"/>
+      <c r="BJ39" s="41"/>
+      <c r="BK39" s="41"/>
+      <c r="BL39" s="38"/>
+      <c r="BM39" s="38"/>
+      <c r="BN39" s="38"/>
+      <c r="BO39" s="38"/>
+      <c r="BP39" s="38"/>
+      <c r="BQ39" s="38"/>
+      <c r="BR39" s="38"/>
+      <c r="BS39" s="38"/>
+      <c r="BT39" s="38"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="38"/>
+      <c r="BW39" s="38"/>
+      <c r="BX39" s="38"/>
+      <c r="BY39" s="38"/>
+      <c r="BZ39" s="38"/>
+    </row>
+    <row r="40" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36">
+        <v>0</v>
+      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+      <c r="Z40" s="38"/>
+      <c r="AA40" s="38"/>
+      <c r="AB40" s="38"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="38"/>
+      <c r="AJ40" s="38"/>
+      <c r="AK40" s="38"/>
+      <c r="AL40" s="38"/>
+      <c r="AM40" s="38"/>
+      <c r="AN40" s="38"/>
+      <c r="AO40" s="38"/>
+      <c r="AP40" s="38"/>
+      <c r="AQ40" s="38"/>
+      <c r="AR40" s="40"/>
+      <c r="AS40" s="40"/>
+      <c r="AT40" s="40"/>
+      <c r="AU40" s="40"/>
+      <c r="AV40" s="40"/>
+      <c r="AW40" s="38"/>
+      <c r="AX40" s="38"/>
+      <c r="AY40" s="38"/>
+      <c r="AZ40" s="38"/>
+      <c r="BA40" s="38"/>
+      <c r="BB40" s="38"/>
+      <c r="BC40" s="38"/>
+      <c r="BD40" s="38"/>
+      <c r="BE40" s="38"/>
+      <c r="BF40" s="38"/>
+      <c r="BG40" s="41"/>
+      <c r="BH40" s="41"/>
+      <c r="BI40" s="41"/>
+      <c r="BJ40" s="41"/>
+      <c r="BK40" s="41"/>
+      <c r="BL40" s="38"/>
+      <c r="BM40" s="38"/>
+      <c r="BN40" s="38"/>
+      <c r="BO40" s="38"/>
+      <c r="BP40" s="38"/>
+      <c r="BQ40" s="38"/>
+      <c r="BR40" s="38"/>
+      <c r="BS40" s="38"/>
+      <c r="BT40" s="38"/>
+      <c r="BU40" s="38"/>
+      <c r="BV40" s="38"/>
+      <c r="BW40" s="38"/>
+      <c r="BX40" s="38"/>
+      <c r="BY40" s="38"/>
+      <c r="BZ40" s="38"/>
+    </row>
+    <row r="41" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36">
+        <f t="shared" ref="G41:G43" si="5">DAYS360(E41,F41)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="37"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="38"/>
+      <c r="AM41" s="38"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="38"/>
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="38"/>
+      <c r="AR41" s="40"/>
+      <c r="AS41" s="40"/>
+      <c r="AT41" s="40"/>
+      <c r="AU41" s="40"/>
+      <c r="AV41" s="40"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="41"/>
+      <c r="BH41" s="41"/>
+      <c r="BI41" s="41"/>
+      <c r="BJ41" s="41"/>
+      <c r="BK41" s="41"/>
+      <c r="BL41" s="38"/>
+      <c r="BM41" s="38"/>
+      <c r="BN41" s="38"/>
+      <c r="BO41" s="38"/>
+      <c r="BP41" s="38"/>
+      <c r="BQ41" s="38"/>
+      <c r="BR41" s="38"/>
+      <c r="BS41" s="38"/>
+      <c r="BT41" s="38"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="38"/>
+      <c r="BW41" s="38"/>
+      <c r="BX41" s="38"/>
+      <c r="BY41" s="38"/>
+      <c r="BZ41" s="38"/>
+    </row>
+    <row r="42" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+      <c r="AF42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="38"/>
+      <c r="AL42" s="38"/>
+      <c r="AM42" s="38"/>
+      <c r="AN42" s="38"/>
+      <c r="AO42" s="38"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="40"/>
+      <c r="AS42" s="40"/>
+      <c r="AT42" s="40"/>
+      <c r="AU42" s="40"/>
+      <c r="AV42" s="40"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AY42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BB42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BE42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="41"/>
+      <c r="BH42" s="41"/>
+      <c r="BI42" s="41"/>
+      <c r="BJ42" s="41"/>
+      <c r="BK42" s="41"/>
+      <c r="BL42" s="38"/>
+      <c r="BM42" s="38"/>
+      <c r="BN42" s="38"/>
+      <c r="BO42" s="38"/>
+      <c r="BP42" s="38"/>
+      <c r="BQ42" s="38"/>
+      <c r="BR42" s="38"/>
+      <c r="BS42" s="38"/>
+      <c r="BT42" s="38"/>
+      <c r="BU42" s="38"/>
+      <c r="BV42" s="38"/>
+      <c r="BW42" s="38"/>
+      <c r="BX42" s="38"/>
+      <c r="BY42" s="38"/>
+      <c r="BZ42" s="38"/>
+    </row>
+    <row r="43" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="38"/>
+      <c r="T43" s="38"/>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+      <c r="AF43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="38"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="38"/>
+      <c r="AL43" s="38"/>
+      <c r="AM43" s="38"/>
+      <c r="AN43" s="38"/>
+      <c r="AO43" s="38"/>
+      <c r="AP43" s="38"/>
+      <c r="AQ43" s="38"/>
+      <c r="AR43" s="40"/>
+      <c r="AS43" s="40"/>
+      <c r="AT43" s="40"/>
+      <c r="AU43" s="40"/>
+      <c r="AV43" s="40"/>
+      <c r="AW43" s="38"/>
+      <c r="AX43" s="38"/>
+      <c r="AY43" s="38"/>
+      <c r="AZ43" s="38"/>
+      <c r="BA43" s="38"/>
+      <c r="BB43" s="38"/>
+      <c r="BC43" s="38"/>
+      <c r="BD43" s="38"/>
+      <c r="BE43" s="38"/>
+      <c r="BF43" s="38"/>
+      <c r="BG43" s="41"/>
+      <c r="BH43" s="41"/>
+      <c r="BI43" s="41"/>
+      <c r="BJ43" s="41"/>
+      <c r="BK43" s="41"/>
+      <c r="BL43" s="38"/>
+      <c r="BM43" s="38"/>
+      <c r="BN43" s="38"/>
+      <c r="BO43" s="38"/>
+      <c r="BP43" s="38"/>
+      <c r="BQ43" s="38"/>
+      <c r="BR43" s="38"/>
+      <c r="BS43" s="38"/>
+      <c r="BT43" s="38"/>
+      <c r="BU43" s="38"/>
+      <c r="BV43" s="38"/>
+      <c r="BW43" s="38"/>
+      <c r="BX43" s="38"/>
+      <c r="BY43" s="38"/>
+      <c r="BZ43" s="38"/>
+    </row>
+    <row r="44" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36">
+        <v>0</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="38"/>
+      <c r="T44" s="38"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="38"/>
+      <c r="W44" s="38"/>
+      <c r="X44" s="38"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="38"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
+      <c r="AE44" s="39"/>
+      <c r="AF44" s="39"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="38"/>
+      <c r="AK44" s="38"/>
+      <c r="AL44" s="38"/>
+      <c r="AM44" s="38"/>
+      <c r="AN44" s="38"/>
+      <c r="AO44" s="38"/>
+      <c r="AP44" s="38"/>
+      <c r="AQ44" s="38"/>
+      <c r="AR44" s="40"/>
+      <c r="AS44" s="40"/>
+      <c r="AT44" s="40"/>
+      <c r="AU44" s="40"/>
+      <c r="AV44" s="40"/>
+      <c r="AW44" s="38"/>
+      <c r="AX44" s="38"/>
+      <c r="AY44" s="38"/>
+      <c r="AZ44" s="38"/>
+      <c r="BA44" s="38"/>
+      <c r="BB44" s="38"/>
+      <c r="BC44" s="38"/>
+      <c r="BD44" s="38"/>
+      <c r="BE44" s="38"/>
+      <c r="BF44" s="38"/>
+      <c r="BG44" s="41"/>
+      <c r="BH44" s="41"/>
+      <c r="BI44" s="41"/>
+      <c r="BJ44" s="41"/>
+      <c r="BK44" s="41"/>
+      <c r="BL44" s="38"/>
+      <c r="BM44" s="38"/>
+      <c r="BN44" s="38"/>
+      <c r="BO44" s="38"/>
+      <c r="BP44" s="38"/>
+      <c r="BQ44" s="38"/>
+      <c r="BR44" s="38"/>
+      <c r="BS44" s="38"/>
+      <c r="BT44" s="38"/>
+      <c r="BU44" s="38"/>
+      <c r="BV44" s="38"/>
+      <c r="BW44" s="38"/>
+      <c r="BX44" s="38"/>
+      <c r="BY44" s="38"/>
+      <c r="BZ44" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
     <mergeCell ref="E8:E9"/>
@@ -4362,7 +5084,7 @@
     <mergeCell ref="BV9:BZ9"/>
     <mergeCell ref="S9:W9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H19:H37 H11:H17">
+  <conditionalFormatting sqref="H11:H17 H19:H44">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4371,8 +5093,6 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H37 H11:H17">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4388,10 +5108,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
-    <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <xsd:import namespace="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B10A54BFA49A1745B9644FF27C062FA2" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7d5367bde21c80642e526681d4a8be1a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3e852b20-1f49-4124-b1f2-06b0fa86da27" xmlns:ns4="ccdf210e-c7a9-4a9e-a7ba-6e0c25884456" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b045d0b3cdddcc7d16fff0208fdafa1f" ns3:_="" ns4:_="">
+    <xsd:import namespace="3e852b20-1f49-4124-b1f2-06b0fa86da27"/>
+    <xsd:import namespace="ccdf210e-c7a9-4a9e-a7ba-6e0c25884456"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -4400,18 +5120,17 @@
               <xsd:all>
                 <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4419,7 +5138,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3e852b20-1f49-4124-b1f2-06b0fa86da27" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -4432,26 +5151,28 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
@@ -4464,28 +5185,21 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d07d918a-d172-4450-8f4a-7b087689ff85" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ccdf210e-c7a9-4a9e-a7ba-6e0c25884456" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4504,14 +5218,14 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="16" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -4618,7 +5332,9 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <_activity xmlns="3e852b20-1f49-4124-b1f2-06b0fa86da27" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -4632,13 +5348,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABA0522-F1FF-4DE2-B649-531C1A456DE9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e852b20-1f49-4124-b1f2-06b0fa86da27"/>
+    <ds:schemaRef ds:uri="ccdf210e-c7a9-4a9e-a7ba-6e0c25884456"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ccdf210e-c7a9-4a9e-a7ba-6e0c25884456"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3e852b20-1f49-4124-b1f2-06b0fa86da27"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gantt_Chart.xlsx
+++ b/Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linja\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FDB6CC-EE3F-4094-822A-43072087726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE9F23-5DEB-49D8-AADF-3DAAF307A999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8832" yWindow="0" windowWidth="14208" windowHeight="10716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -119,13 +119,145 @@
     <t>3.2.1</t>
   </si>
   <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
     <t>Jacy Lin</t>
+  </si>
+  <si>
+    <t>Edu Planner (Cloud Based)</t>
+  </si>
+  <si>
+    <t>W1 9/4/2023</t>
+  </si>
+  <si>
+    <t>W2 9/11/2023</t>
+  </si>
+  <si>
+    <t>W3 9/18/2023</t>
+  </si>
+  <si>
+    <t>W4 9/25/2023</t>
+  </si>
+  <si>
+    <t>W5 10/2/2023</t>
+  </si>
+  <si>
+    <t>W6 10/9/2023</t>
+  </si>
+  <si>
+    <t>W7 10/16/2023</t>
+  </si>
+  <si>
+    <t>W8 10/23/2023</t>
+  </si>
+  <si>
+    <t>W9 10/30/2023</t>
+  </si>
+  <si>
+    <t>W10 11/06/2023</t>
+  </si>
+  <si>
+    <t>W11 11/13/2023</t>
+  </si>
+  <si>
+    <t>W12 11/20/2023</t>
+  </si>
+  <si>
+    <t>W13 11/27/2023</t>
+  </si>
+  <si>
+    <t>W14 12/4/2023</t>
+  </si>
+  <si>
+    <t>Create a Template</t>
+  </si>
+  <si>
+    <t>Create a Theme</t>
+  </si>
+  <si>
+    <t>Jacy</t>
+  </si>
+  <si>
+    <t>Data Management</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Create a Sample Flowchart</t>
+  </si>
+  <si>
+    <t>File/Folder Structuring</t>
+  </si>
+  <si>
+    <t>Data Base Schema Design</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Sign Up Page</t>
+  </si>
+  <si>
+    <t>Create an HTML/CSS Page</t>
+  </si>
+  <si>
+    <t>Ask school for Data Permission</t>
+  </si>
+  <si>
+    <t>Setting Up</t>
+  </si>
+  <si>
+    <t>First Week</t>
+  </si>
+  <si>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t>Database Setup</t>
+  </si>
+  <si>
+    <t>Sign-Up Page</t>
+  </si>
+  <si>
+    <t>Calendar Page</t>
+  </si>
+  <si>
+    <t>Classes Page</t>
+  </si>
+  <si>
+    <t>Faculty List</t>
+  </si>
+  <si>
+    <t>Profile Page</t>
+  </si>
+  <si>
+    <t>HTML/CSS - Login Page</t>
+  </si>
+  <si>
+    <t>HTML/CSS - Sign Up Page</t>
+  </si>
+  <si>
+    <t>SSH Access/Web Servers</t>
+  </si>
+  <si>
+    <t>Generate Data Base (PHP)</t>
   </si>
   <si>
     <r>
@@ -162,7 +294,25 @@
         <color rgb="FF000000"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t xml:space="preserve">, Ramses Terry, </t>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Ramses Terry</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -193,85 +343,79 @@
     </r>
   </si>
   <si>
-    <t>Edu Planner (Cloud Based)</t>
-  </si>
-  <si>
-    <t>W1 9/4/2023</t>
-  </si>
-  <si>
-    <t>W2 9/11/2023</t>
-  </si>
-  <si>
-    <t>W3 9/18/2023</t>
-  </si>
-  <si>
-    <t>W4 9/25/2023</t>
-  </si>
-  <si>
-    <t>W5 10/2/2023</t>
-  </si>
-  <si>
-    <t>W6 10/9/2023</t>
-  </si>
-  <si>
-    <t>W7 10/16/2023</t>
-  </si>
-  <si>
-    <t>W8 10/23/2023</t>
-  </si>
-  <si>
-    <t>W9 10/30/2023</t>
-  </si>
-  <si>
-    <t>W10 11/06/2023</t>
-  </si>
-  <si>
-    <t>W11 11/13/2023</t>
-  </si>
-  <si>
-    <t>W12 11/20/2023</t>
-  </si>
-  <si>
-    <t>W13 11/27/2023</t>
-  </si>
-  <si>
-    <t>W14 12/4/2023</t>
-  </si>
-  <si>
-    <t>Create a Template</t>
-  </si>
-  <si>
-    <t>Create a Theme</t>
-  </si>
-  <si>
-    <t>Jacy</t>
-  </si>
-  <si>
-    <t>Data Management</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>4.2.2</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Everyone</t>
-  </si>
-  <si>
-    <t>1 Week</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 Week</t>
-  </si>
-  <si>
-    <t>Angel</t>
+    <t>Ramses</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Jacy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/Ramses</t>
+    </r>
+  </si>
+  <si>
+    <t>HTML/CSS - Calendar Page</t>
+  </si>
+  <si>
+    <t>HTML/CSS - Classes Page</t>
+  </si>
+  <si>
+    <t>HTML/CSS - Faculty Page</t>
+  </si>
+  <si>
+    <t>HTML/CSS - Profile Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Login Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Sign Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Calendar Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Classes Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Profile Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Faculty Page Maintanence </t>
+  </si>
+  <si>
+    <t>Maintanence - Ensure Page Works</t>
+  </si>
+  <si>
+    <t>Design an overall flowchart</t>
+  </si>
+  <si>
+    <t>Flowchart - Login Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Sign Up Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Calendar Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Classes Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Faculty Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Profile Page</t>
   </si>
 </sst>
 </file>
@@ -282,7 +426,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -464,8 +608,51 @@
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,8 +737,26 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -697,11 +902,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -848,12 +1064,6 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,6 +1076,10 @@
     <xf numFmtId="0" fontId="27" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,6 +1126,42 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,10 +1179,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1237,10 +1483,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BZ44"/>
+  <dimension ref="A1:BZ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC40" sqref="AC40:AG40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1749,7 @@
       </c>
       <c r="C4" s="65"/>
       <c r="D4" s="75" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
@@ -1678,7 +1924,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -1764,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -1946,98 +2192,98 @@
       <c r="G9" s="70"/>
       <c r="H9" s="78"/>
       <c r="I9" s="61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="62"/>
       <c r="M9" s="63"/>
       <c r="N9" s="61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="63"/>
       <c r="S9" s="61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
       <c r="V9" s="62"/>
       <c r="W9" s="63"/>
       <c r="X9" s="61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Y9" s="62"/>
       <c r="Z9" s="62"/>
       <c r="AA9" s="62"/>
       <c r="AB9" s="63"/>
       <c r="AC9" s="61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AD9" s="62"/>
       <c r="AE9" s="62"/>
       <c r="AF9" s="62"/>
       <c r="AG9" s="63"/>
       <c r="AH9" s="61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AI9" s="62"/>
       <c r="AJ9" s="62"/>
       <c r="AK9" s="62"/>
       <c r="AL9" s="63"/>
       <c r="AM9" s="61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AN9" s="62"/>
       <c r="AO9" s="62"/>
       <c r="AP9" s="62"/>
       <c r="AQ9" s="63"/>
       <c r="AR9" s="61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS9" s="62"/>
       <c r="AT9" s="62"/>
       <c r="AU9" s="62"/>
       <c r="AV9" s="63"/>
       <c r="AW9" s="61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AX9" s="62"/>
       <c r="AY9" s="62"/>
       <c r="AZ9" s="62"/>
       <c r="BA9" s="63"/>
       <c r="BB9" s="61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BC9" s="62"/>
       <c r="BD9" s="62"/>
       <c r="BE9" s="62"/>
       <c r="BF9" s="63"/>
       <c r="BG9" s="61" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BH9" s="62"/>
       <c r="BI9" s="62"/>
       <c r="BJ9" s="62"/>
       <c r="BK9" s="63"/>
       <c r="BL9" s="61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BM9" s="62"/>
       <c r="BN9" s="62"/>
       <c r="BO9" s="62"/>
       <c r="BP9" s="63"/>
       <c r="BQ9" s="61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="BR9" s="62"/>
       <c r="BS9" s="62"/>
       <c r="BT9" s="62"/>
       <c r="BU9" s="63"/>
       <c r="BV9" s="61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="BW9" s="62"/>
       <c r="BX9" s="62"/>
@@ -2059,72 +2305,100 @@
       <c r="H10" s="28"/>
       <c r="I10" s="29"/>
       <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="L10" s="31"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="P10" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
+      <c r="U10" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
       <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
+      <c r="Z10" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="AA10" s="29"/>
       <c r="AB10" s="29"/>
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
+      <c r="AE10" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="AF10" s="29"/>
       <c r="AG10" s="29"/>
       <c r="AH10" s="29"/>
       <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
+      <c r="AJ10" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="AK10" s="29"/>
       <c r="AL10" s="29"/>
       <c r="AM10" s="29"/>
       <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
+      <c r="AO10" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="AP10" s="29"/>
       <c r="AQ10" s="29"/>
       <c r="AR10" s="29"/>
       <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
+      <c r="AT10" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="AU10" s="29"/>
       <c r="AV10" s="29"/>
       <c r="AW10" s="29"/>
       <c r="AX10" s="29"/>
-      <c r="AY10" s="29"/>
+      <c r="AY10" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="29"/>
       <c r="BB10" s="29"/>
       <c r="BC10" s="29"/>
-      <c r="BD10" s="29"/>
+      <c r="BD10" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="BE10" s="29"/>
       <c r="BF10" s="29"/>
       <c r="BG10" s="29"/>
       <c r="BH10" s="29"/>
-      <c r="BI10" s="29"/>
+      <c r="BI10" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="BJ10" s="29"/>
       <c r="BK10" s="29"/>
       <c r="BL10" s="29"/>
       <c r="BM10" s="29"/>
-      <c r="BN10" s="29"/>
+      <c r="BN10" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="BO10" s="29"/>
       <c r="BP10" s="29"/>
       <c r="BQ10" s="29"/>
       <c r="BR10" s="29"/>
-      <c r="BS10" s="29"/>
+      <c r="BS10" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="BT10" s="29"/>
       <c r="BU10" s="29"/>
       <c r="BV10" s="29"/>
       <c r="BW10" s="29"/>
-      <c r="BX10" s="29"/>
+      <c r="BX10" s="29" t="s">
+        <v>70</v>
+      </c>
       <c r="BY10" s="29"/>
       <c r="BZ10" s="29"/>
     </row>
@@ -2136,21 +2410,25 @@
       <c r="C11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="D11" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="35">
+        <v>45166</v>
+      </c>
+      <c r="F11" s="35">
+        <v>45173</v>
+      </c>
       <c r="G11" s="36">
         <f t="shared" ref="G11:G17" si="0">DAYS360(E11,F11)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
@@ -2225,21 +2503,25 @@
       <c r="C12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="35">
+        <v>45166</v>
+      </c>
+      <c r="F12" s="35">
+        <v>45173</v>
+      </c>
       <c r="G12" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
@@ -2315,20 +2597,24 @@
         <v>21</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="35">
+        <v>45166</v>
+      </c>
+      <c r="F13" s="35">
+        <v>45173</v>
+      </c>
       <c r="G13" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H13" s="37"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
@@ -2403,21 +2689,25 @@
       <c r="C14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="35">
+        <v>45173</v>
+      </c>
+      <c r="F14" s="35">
+        <v>45175</v>
+      </c>
       <c r="G14" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
@@ -2493,20 +2783,24 @@
         <v>23</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="E15" s="35">
+        <v>45166</v>
+      </c>
+      <c r="F15" s="35">
+        <v>45173</v>
+      </c>
       <c r="G15" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
@@ -2578,25 +2872,33 @@
       <c r="B16" s="33">
         <v>1.5</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="35">
+        <v>45182</v>
+      </c>
+      <c r="F16" s="35">
+        <v>45189</v>
+      </c>
       <c r="G16" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
       <c r="U16" s="38"/>
@@ -2661,27 +2963,35 @@
     <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
-        <v>1.6</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+        <v>1.5</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="35">
+        <v>45182</v>
+      </c>
+      <c r="F17" s="35">
+        <v>45189</v>
+      </c>
       <c r="G17" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
@@ -2756,11 +3066,11 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="54"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -2833,10 +3143,10 @@
         <v>2.1</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="D19" s="86" t="s">
+        <v>46</v>
       </c>
       <c r="E19" s="35">
         <v>45180</v>
@@ -2844,20 +3154,20 @@
       <c r="F19" s="35">
         <v>45187</v>
       </c>
-      <c r="G19" s="36" t="s">
-        <v>57</v>
+      <c r="G19" s="36">
+        <v>7</v>
       </c>
       <c r="H19" s="45"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
@@ -2925,10 +3235,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>46</v>
       </c>
       <c r="E20" s="35">
         <v>45187</v>
@@ -2936,25 +3246,25 @@
       <c r="F20" s="35">
         <v>45194</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>56</v>
+      <c r="G20" s="36">
+        <v>7</v>
       </c>
       <c r="H20" s="45"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
@@ -3016,30 +3326,37 @@
       <c r="B21" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="C21" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="35">
+        <v>45187</v>
+      </c>
+      <c r="F21" s="35">
+        <v>45194</v>
+      </c>
       <c r="G21" s="36">
-        <f t="shared" ref="G21" si="1">DAYS360(E21,F21)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H21" s="45"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
@@ -3101,24 +3418,32 @@
       <c r="B22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="C22" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="35">
+        <v>45180</v>
+      </c>
+      <c r="F22" s="35">
+        <v>45187</v>
+      </c>
       <c r="G22" s="36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" s="45"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
@@ -3185,30 +3510,38 @@
       <c r="B23" s="33">
         <v>2.4</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="C23" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="35">
+        <v>45182</v>
+      </c>
+      <c r="F23" s="35">
+        <v>45189</v>
+      </c>
       <c r="G23" s="36">
-        <f t="shared" ref="G23:G24" si="2">DAYS360(E23,F23)</f>
-        <v>0</v>
+        <f t="shared" ref="G23" si="1">DAYS360(E23,F23)</f>
+        <v>7</v>
       </c>
       <c r="H23" s="45"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
@@ -3270,20 +3603,27 @@
       <c r="B24" s="33">
         <v>2.5</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="C24" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="35">
+        <v>45189</v>
+      </c>
+      <c r="F24" s="35">
+        <v>45196</v>
+      </c>
       <c r="G24" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H24" s="45"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
@@ -3294,11 +3634,11 @@
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
       <c r="AC24" s="39"/>
       <c r="AD24" s="39"/>
       <c r="AE24" s="39"/>
@@ -3355,19 +3695,27 @@
       <c r="B25" s="33">
         <v>2.6</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="C25" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="35">
+        <v>45203</v>
+      </c>
+      <c r="F25" s="35">
+        <v>45210</v>
+      </c>
       <c r="G25" s="36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25" s="45"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
@@ -3439,20 +3787,28 @@
       <c r="B26" s="33">
         <v>2.7</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="C26" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F26" s="35">
+        <v>45217</v>
+      </c>
       <c r="G26" s="36">
-        <f t="shared" ref="G26:G27" si="3">DAYS360(E26,F26)</f>
-        <v>0</v>
+        <f t="shared" ref="G26:G27" si="2">DAYS360(E26,F26)</f>
+        <v>7</v>
       </c>
       <c r="H26" s="45"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
@@ -3524,20 +3880,27 @@
       <c r="B27" s="33">
         <v>2.8</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="35">
+        <v>45217</v>
+      </c>
+      <c r="F27" s="35">
+        <v>45231</v>
+      </c>
       <c r="G27" s="36">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H27" s="45"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -3609,19 +3972,27 @@
       <c r="B28" s="33">
         <v>2.9</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+      <c r="C28" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="35">
+        <v>45231</v>
+      </c>
+      <c r="F28" s="35">
+        <v>45245</v>
+      </c>
       <c r="G28" s="36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H28" s="45"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
@@ -3693,20 +4064,28 @@
       <c r="B29" s="44">
         <v>2.1</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="C29" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="35">
+        <v>45245</v>
+      </c>
+      <c r="F29" s="35">
+        <v>45259</v>
+      </c>
       <c r="G29" s="36">
         <f>DAYS360(E29,F29)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H29" s="45"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -3778,19 +4157,27 @@
       <c r="B30" s="44">
         <v>2.11</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="C30" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="35">
+        <v>45259</v>
+      </c>
+      <c r="F30" s="35">
+        <v>45273</v>
+      </c>
       <c r="G30" s="36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H30" s="45"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
@@ -3870,11 +4257,11 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="54"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="52"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
       <c r="P31" s="29"/>
@@ -3946,20 +4333,28 @@
       <c r="B32" s="33">
         <v>3.1</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="C32" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="35">
+        <v>45189</v>
+      </c>
+      <c r="F32" s="35">
+        <v>45196</v>
+      </c>
       <c r="G32" s="36">
         <f>DAYS360(E32,F32)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H32" s="37"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
       <c r="N32" s="42"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
@@ -3970,11 +4365,11 @@
       <c r="U32" s="38"/>
       <c r="V32" s="38"/>
       <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
       <c r="AC32" s="39"/>
       <c r="AD32" s="39"/>
       <c r="AE32" s="39"/>
@@ -4031,19 +4426,27 @@
       <c r="B33" s="33">
         <v>3.2</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="C33" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="35">
+        <v>45203</v>
+      </c>
+      <c r="F33" s="35">
+        <v>45210</v>
+      </c>
       <c r="G33" s="36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H33" s="37"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
       <c r="N33" s="42"/>
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
@@ -4059,11 +4462,11 @@
       <c r="Z33" s="38"/>
       <c r="AA33" s="38"/>
       <c r="AB33" s="38"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="91"/>
+      <c r="AE33" s="91"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="91"/>
       <c r="AH33" s="38"/>
       <c r="AI33" s="38"/>
       <c r="AJ33" s="38"/>
@@ -4115,20 +4518,28 @@
       <c r="B34" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="C34" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F34" s="35">
+        <v>45217</v>
+      </c>
       <c r="G34" s="36">
-        <f t="shared" ref="G34:G36" si="4">DAYS360(E34,F34)</f>
-        <v>0</v>
+        <f t="shared" ref="G34:G36" si="3">DAYS360(E34,F34)</f>
+        <v>7</v>
       </c>
       <c r="H34" s="37"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
@@ -4197,22 +4608,29 @@
     </row>
     <row r="35" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
-      <c r="B35" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
+      <c r="B35" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="35">
+        <v>45217</v>
+      </c>
+      <c r="F35" s="35">
+        <v>45231</v>
+      </c>
       <c r="G35" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
+        <v>14</v>
+      </c>
+      <c r="I35" s="80"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
       <c r="N35" s="42"/>
       <c r="O35" s="42"/>
       <c r="P35" s="42"/>
@@ -4282,22 +4700,30 @@
     <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="33">
-        <v>3.3</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
+        <v>3.5</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="35">
+        <v>45231</v>
+      </c>
+      <c r="F36" s="35">
+        <v>45245</v>
+      </c>
       <c r="G36" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="H36" s="37"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
       <c r="P36" s="42"/>
@@ -4366,22 +4792,30 @@
     </row>
     <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
+      <c r="B37" s="33">
+        <v>3.6</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="35">
+        <v>45245</v>
+      </c>
+      <c r="F37" s="35">
+        <v>45259</v>
+      </c>
       <c r="G37" s="36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H37" s="37"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
@@ -4448,197 +4882,209 @@
       <c r="BY37" s="38"/>
       <c r="BZ37" s="38"/>
     </row>
-    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="26">
+    <row r="38" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="33">
+        <v>3.7</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="35">
+        <v>45259</v>
+      </c>
+      <c r="F38" s="35">
+        <v>45273</v>
+      </c>
+      <c r="G38" s="36">
+        <v>14</v>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="40"/>
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="40"/>
+      <c r="AV38" s="40"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38"/>
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="38"/>
+      <c r="BE38" s="38"/>
+      <c r="BF38" s="38"/>
+      <c r="BG38" s="41"/>
+      <c r="BH38" s="41"/>
+      <c r="BI38" s="41"/>
+      <c r="BJ38" s="41"/>
+      <c r="BK38" s="41"/>
+      <c r="BL38" s="38"/>
+      <c r="BM38" s="38"/>
+      <c r="BN38" s="38"/>
+      <c r="BO38" s="38"/>
+      <c r="BP38" s="38"/>
+      <c r="BQ38" s="38"/>
+      <c r="BR38" s="38"/>
+      <c r="BS38" s="38"/>
+      <c r="BT38" s="38"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="38"/>
+      <c r="BW38" s="38"/>
+      <c r="BX38" s="38"/>
+      <c r="BY38" s="38"/>
+      <c r="BZ38" s="38"/>
+    </row>
+    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="26">
         <v>4</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="29"/>
-      <c r="AV38" s="29"/>
-      <c r="AW38" s="29"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="29"/>
-      <c r="BE38" s="29"/>
-      <c r="BF38" s="29"/>
-      <c r="BG38" s="29"/>
-      <c r="BH38" s="29"/>
-      <c r="BI38" s="29"/>
-      <c r="BJ38" s="29"/>
-      <c r="BK38" s="29"/>
-      <c r="BL38" s="29"/>
-      <c r="BM38" s="29"/>
-      <c r="BN38" s="29"/>
-      <c r="BO38" s="29"/>
-      <c r="BP38" s="29"/>
-      <c r="BQ38" s="29"/>
-      <c r="BR38" s="29"/>
-      <c r="BS38" s="29"/>
-      <c r="BT38" s="29"/>
-      <c r="BU38" s="29"/>
-      <c r="BV38" s="29"/>
-      <c r="BW38" s="29"/>
-      <c r="BX38" s="29"/>
-      <c r="BY38" s="29"/>
-      <c r="BZ38" s="29"/>
-    </row>
-    <row r="39" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36">
-        <f>DAYS360(E39,F39)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="37"/>
+      <c r="C39" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="52"/>
       <c r="J39" s="53"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="39"/>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
-      <c r="AH39" s="38"/>
-      <c r="AI39" s="38"/>
-      <c r="AJ39" s="38"/>
-      <c r="AK39" s="38"/>
-      <c r="AL39" s="38"/>
-      <c r="AM39" s="38"/>
-      <c r="AN39" s="38"/>
-      <c r="AO39" s="38"/>
-      <c r="AP39" s="38"/>
-      <c r="AQ39" s="38"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="40"/>
-      <c r="AV39" s="40"/>
-      <c r="AW39" s="38"/>
-      <c r="AX39" s="38"/>
-      <c r="AY39" s="38"/>
-      <c r="AZ39" s="38"/>
-      <c r="BA39" s="38"/>
-      <c r="BB39" s="38"/>
-      <c r="BC39" s="38"/>
-      <c r="BD39" s="38"/>
-      <c r="BE39" s="38"/>
-      <c r="BF39" s="38"/>
-      <c r="BG39" s="41"/>
-      <c r="BH39" s="41"/>
-      <c r="BI39" s="41"/>
-      <c r="BJ39" s="41"/>
-      <c r="BK39" s="41"/>
-      <c r="BL39" s="38"/>
-      <c r="BM39" s="38"/>
-      <c r="BN39" s="38"/>
-      <c r="BO39" s="38"/>
-      <c r="BP39" s="38"/>
-      <c r="BQ39" s="38"/>
-      <c r="BR39" s="38"/>
-      <c r="BS39" s="38"/>
-      <c r="BT39" s="38"/>
-      <c r="BU39" s="38"/>
-      <c r="BV39" s="38"/>
-      <c r="BW39" s="38"/>
-      <c r="BX39" s="38"/>
-      <c r="BY39" s="38"/>
-      <c r="BZ39" s="38"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="29"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="29"/>
+      <c r="AS39" s="29"/>
+      <c r="AT39" s="29"/>
+      <c r="AU39" s="29"/>
+      <c r="AV39" s="29"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="29"/>
+      <c r="AY39" s="29"/>
+      <c r="AZ39" s="29"/>
+      <c r="BA39" s="29"/>
+      <c r="BB39" s="29"/>
+      <c r="BC39" s="29"/>
+      <c r="BD39" s="29"/>
+      <c r="BE39" s="29"/>
+      <c r="BF39" s="29"/>
+      <c r="BG39" s="29"/>
+      <c r="BH39" s="29"/>
+      <c r="BI39" s="29"/>
+      <c r="BJ39" s="29"/>
+      <c r="BK39" s="29"/>
+      <c r="BL39" s="29"/>
+      <c r="BM39" s="29"/>
+      <c r="BN39" s="29"/>
+      <c r="BO39" s="29"/>
+      <c r="BP39" s="29"/>
+      <c r="BQ39" s="29"/>
+      <c r="BR39" s="29"/>
+      <c r="BS39" s="29"/>
+      <c r="BT39" s="29"/>
+      <c r="BU39" s="29"/>
+      <c r="BV39" s="29"/>
+      <c r="BW39" s="29"/>
+      <c r="BX39" s="29"/>
+      <c r="BY39" s="29"/>
+      <c r="BZ39" s="29"/>
     </row>
     <row r="40" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="35">
+        <v>45196</v>
+      </c>
+      <c r="F40" s="35">
+        <v>45203</v>
+      </c>
       <c r="G40" s="36">
-        <v>0</v>
+        <f>DAYS360(E40,F40)</f>
+        <v>7</v>
       </c>
       <c r="H40" s="37"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="82"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
@@ -4654,11 +5100,11 @@
       <c r="Z40" s="38"/>
       <c r="AA40" s="38"/>
       <c r="AB40" s="38"/>
-      <c r="AC40" s="39"/>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="91"/>
+      <c r="AE40" s="91"/>
+      <c r="AF40" s="91"/>
+      <c r="AG40" s="91"/>
       <c r="AH40" s="38"/>
       <c r="AI40" s="38"/>
       <c r="AJ40" s="38"/>
@@ -4707,25 +5153,30 @@
     </row>
     <row r="41" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
-      <c r="B41" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="34" t="s">
+      <c r="B41" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="C41" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
+      <c r="D41" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="35">
+        <v>45203</v>
+      </c>
+      <c r="F41" s="35">
+        <v>45210</v>
+      </c>
       <c r="G41" s="36">
-        <f t="shared" ref="G41:G43" si="5">DAYS360(E41,F41)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H41" s="37"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
@@ -4795,21 +5246,30 @@
     <row r="42" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
+        <v>48</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F42" s="35">
+        <v>45217</v>
+      </c>
       <c r="G42" s="36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
+        <f t="shared" ref="G42:G45" si="4">DAYS360(E42,F42)</f>
+        <v>7</v>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
       <c r="N42" s="42"/>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
@@ -4878,23 +5338,29 @@
     </row>
     <row r="43" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
-      <c r="B43" s="33">
-        <v>4.3</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
+      <c r="B43" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="35">
+        <v>45217</v>
+      </c>
+      <c r="F43" s="35">
+        <v>45231</v>
+      </c>
       <c r="G43" s="36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
+        <v>14</v>
+      </c>
+      <c r="I43" s="80"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
       <c r="N43" s="42"/>
       <c r="O43" s="42"/>
       <c r="P43" s="42"/>
@@ -4963,22 +5429,31 @@
     </row>
     <row r="44" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="35">
+        <v>45231</v>
+      </c>
+      <c r="F44" s="35">
+        <v>45245</v>
+      </c>
       <c r="G44" s="36">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="H44" s="37"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
       <c r="N44" s="42"/>
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
@@ -5045,6 +5520,822 @@
       <c r="BY44" s="38"/>
       <c r="BZ44" s="38"/>
     </row>
+    <row r="45" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="35">
+        <v>45245</v>
+      </c>
+      <c r="F45" s="35">
+        <v>45259</v>
+      </c>
+      <c r="G45" s="36">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="38"/>
+      <c r="U45" s="38"/>
+      <c r="V45" s="38"/>
+      <c r="W45" s="38"/>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+      <c r="AF45" s="39"/>
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="38"/>
+      <c r="AJ45" s="38"/>
+      <c r="AK45" s="38"/>
+      <c r="AL45" s="38"/>
+      <c r="AM45" s="38"/>
+      <c r="AN45" s="38"/>
+      <c r="AO45" s="38"/>
+      <c r="AP45" s="38"/>
+      <c r="AQ45" s="38"/>
+      <c r="AR45" s="40"/>
+      <c r="AS45" s="40"/>
+      <c r="AT45" s="40"/>
+      <c r="AU45" s="40"/>
+      <c r="AV45" s="40"/>
+      <c r="AW45" s="38"/>
+      <c r="AX45" s="38"/>
+      <c r="AY45" s="38"/>
+      <c r="AZ45" s="38"/>
+      <c r="BA45" s="38"/>
+      <c r="BB45" s="38"/>
+      <c r="BC45" s="38"/>
+      <c r="BD45" s="38"/>
+      <c r="BE45" s="38"/>
+      <c r="BF45" s="38"/>
+      <c r="BG45" s="41"/>
+      <c r="BH45" s="41"/>
+      <c r="BI45" s="41"/>
+      <c r="BJ45" s="41"/>
+      <c r="BK45" s="41"/>
+      <c r="BL45" s="38"/>
+      <c r="BM45" s="38"/>
+      <c r="BN45" s="38"/>
+      <c r="BO45" s="38"/>
+      <c r="BP45" s="38"/>
+      <c r="BQ45" s="38"/>
+      <c r="BR45" s="38"/>
+      <c r="BS45" s="38"/>
+      <c r="BT45" s="38"/>
+      <c r="BU45" s="38"/>
+      <c r="BV45" s="38"/>
+      <c r="BW45" s="38"/>
+      <c r="BX45" s="38"/>
+      <c r="BY45" s="38"/>
+      <c r="BZ45" s="38"/>
+    </row>
+    <row r="46" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="35">
+        <v>45259</v>
+      </c>
+      <c r="F46" s="35">
+        <v>45273</v>
+      </c>
+      <c r="G46" s="36">
+        <v>14</v>
+      </c>
+      <c r="H46" s="37"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="38"/>
+      <c r="U46" s="38"/>
+      <c r="V46" s="38"/>
+      <c r="W46" s="38"/>
+      <c r="X46" s="38"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="38"/>
+      <c r="AB46" s="38"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="39"/>
+      <c r="AF46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="38"/>
+      <c r="AI46" s="38"/>
+      <c r="AJ46" s="38"/>
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="38"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="38"/>
+      <c r="AO46" s="38"/>
+      <c r="AP46" s="38"/>
+      <c r="AQ46" s="38"/>
+      <c r="AR46" s="40"/>
+      <c r="AS46" s="40"/>
+      <c r="AT46" s="40"/>
+      <c r="AU46" s="40"/>
+      <c r="AV46" s="40"/>
+      <c r="AW46" s="38"/>
+      <c r="AX46" s="38"/>
+      <c r="AY46" s="38"/>
+      <c r="AZ46" s="38"/>
+      <c r="BA46" s="38"/>
+      <c r="BB46" s="38"/>
+      <c r="BC46" s="38"/>
+      <c r="BD46" s="38"/>
+      <c r="BE46" s="38"/>
+      <c r="BF46" s="38"/>
+      <c r="BG46" s="41"/>
+      <c r="BH46" s="41"/>
+      <c r="BI46" s="41"/>
+      <c r="BJ46" s="41"/>
+      <c r="BK46" s="41"/>
+      <c r="BL46" s="38"/>
+      <c r="BM46" s="38"/>
+      <c r="BN46" s="38"/>
+      <c r="BO46" s="38"/>
+      <c r="BP46" s="38"/>
+      <c r="BQ46" s="38"/>
+      <c r="BR46" s="38"/>
+      <c r="BS46" s="38"/>
+      <c r="BT46" s="38"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="38"/>
+      <c r="BW46" s="38"/>
+      <c r="BX46" s="38"/>
+      <c r="BY46" s="38"/>
+      <c r="BZ46" s="38"/>
+    </row>
+    <row r="47" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="26">
+        <v>5</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
+      <c r="AS47" s="29"/>
+      <c r="AT47" s="29"/>
+      <c r="AU47" s="29"/>
+      <c r="AV47" s="29"/>
+      <c r="AW47" s="29"/>
+      <c r="AX47" s="29"/>
+      <c r="AY47" s="29"/>
+      <c r="AZ47" s="29"/>
+      <c r="BA47" s="29"/>
+      <c r="BB47" s="29"/>
+      <c r="BC47" s="29"/>
+      <c r="BD47" s="29"/>
+      <c r="BE47" s="29"/>
+      <c r="BF47" s="29"/>
+      <c r="BG47" s="29"/>
+      <c r="BH47" s="29"/>
+      <c r="BI47" s="29"/>
+      <c r="BJ47" s="29"/>
+      <c r="BK47" s="29"/>
+      <c r="BL47" s="29"/>
+      <c r="BM47" s="29"/>
+      <c r="BN47" s="29"/>
+      <c r="BO47" s="29"/>
+      <c r="BP47" s="29"/>
+      <c r="BQ47" s="29"/>
+      <c r="BR47" s="29"/>
+      <c r="BS47" s="29"/>
+      <c r="BT47" s="29"/>
+      <c r="BU47" s="29"/>
+      <c r="BV47" s="29"/>
+      <c r="BW47" s="29"/>
+      <c r="BX47" s="29"/>
+      <c r="BY47" s="29"/>
+      <c r="BZ47" s="29"/>
+    </row>
+    <row r="48" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="35">
+        <v>45203</v>
+      </c>
+      <c r="F48" s="35">
+        <v>45210</v>
+      </c>
+      <c r="G48" s="36">
+        <f>DAYS360(E48,F48)</f>
+        <v>7</v>
+      </c>
+      <c r="H48" s="37"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="38"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="38"/>
+      <c r="W48" s="38"/>
+      <c r="X48" s="38"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="38"/>
+      <c r="AB48" s="38"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+      <c r="AF48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="38"/>
+      <c r="AJ48" s="38"/>
+      <c r="AK48" s="38"/>
+      <c r="AL48" s="38"/>
+      <c r="AM48" s="38"/>
+      <c r="AN48" s="38"/>
+      <c r="AO48" s="38"/>
+      <c r="AP48" s="38"/>
+      <c r="AQ48" s="38"/>
+      <c r="AR48" s="40"/>
+      <c r="AS48" s="40"/>
+      <c r="AT48" s="40"/>
+      <c r="AU48" s="40"/>
+      <c r="AV48" s="40"/>
+      <c r="AW48" s="38"/>
+      <c r="AX48" s="38"/>
+      <c r="AY48" s="38"/>
+      <c r="AZ48" s="38"/>
+      <c r="BA48" s="38"/>
+      <c r="BB48" s="38"/>
+      <c r="BC48" s="38"/>
+      <c r="BD48" s="38"/>
+      <c r="BE48" s="38"/>
+      <c r="BF48" s="38"/>
+      <c r="BG48" s="41"/>
+      <c r="BH48" s="41"/>
+      <c r="BI48" s="41"/>
+      <c r="BJ48" s="41"/>
+      <c r="BK48" s="41"/>
+      <c r="BL48" s="38"/>
+      <c r="BM48" s="38"/>
+      <c r="BN48" s="38"/>
+      <c r="BO48" s="38"/>
+      <c r="BP48" s="38"/>
+      <c r="BQ48" s="38"/>
+      <c r="BR48" s="38"/>
+      <c r="BS48" s="38"/>
+      <c r="BT48" s="38"/>
+      <c r="BU48" s="38"/>
+      <c r="BV48" s="38"/>
+      <c r="BW48" s="38"/>
+      <c r="BX48" s="38"/>
+      <c r="BY48" s="38"/>
+      <c r="BZ48" s="38"/>
+    </row>
+    <row r="49" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F49" s="35">
+        <v>45217</v>
+      </c>
+      <c r="G49" s="36">
+        <v>7</v>
+      </c>
+      <c r="H49" s="37"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
+      <c r="U49" s="38"/>
+      <c r="V49" s="38"/>
+      <c r="W49" s="38"/>
+      <c r="X49" s="38"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="38"/>
+      <c r="AB49" s="38"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+      <c r="AF49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="38"/>
+      <c r="AI49" s="38"/>
+      <c r="AJ49" s="38"/>
+      <c r="AK49" s="38"/>
+      <c r="AL49" s="38"/>
+      <c r="AM49" s="38"/>
+      <c r="AN49" s="38"/>
+      <c r="AO49" s="38"/>
+      <c r="AP49" s="38"/>
+      <c r="AQ49" s="38"/>
+      <c r="AR49" s="40"/>
+      <c r="AS49" s="40"/>
+      <c r="AT49" s="40"/>
+      <c r="AU49" s="40"/>
+      <c r="AV49" s="40"/>
+      <c r="AW49" s="38"/>
+      <c r="AX49" s="38"/>
+      <c r="AY49" s="38"/>
+      <c r="AZ49" s="38"/>
+      <c r="BA49" s="38"/>
+      <c r="BB49" s="38"/>
+      <c r="BC49" s="38"/>
+      <c r="BD49" s="38"/>
+      <c r="BE49" s="38"/>
+      <c r="BF49" s="38"/>
+      <c r="BG49" s="41"/>
+      <c r="BH49" s="41"/>
+      <c r="BI49" s="41"/>
+      <c r="BJ49" s="41"/>
+      <c r="BK49" s="41"/>
+      <c r="BL49" s="38"/>
+      <c r="BM49" s="38"/>
+      <c r="BN49" s="38"/>
+      <c r="BO49" s="38"/>
+      <c r="BP49" s="38"/>
+      <c r="BQ49" s="38"/>
+      <c r="BR49" s="38"/>
+      <c r="BS49" s="38"/>
+      <c r="BT49" s="38"/>
+      <c r="BU49" s="38"/>
+      <c r="BV49" s="38"/>
+      <c r="BW49" s="38"/>
+      <c r="BX49" s="38"/>
+      <c r="BY49" s="38"/>
+      <c r="BZ49" s="38"/>
+    </row>
+    <row r="50" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="35">
+        <v>45217</v>
+      </c>
+      <c r="F50" s="35">
+        <v>45231</v>
+      </c>
+      <c r="G50" s="36">
+        <v>14</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="38"/>
+      <c r="U50" s="38"/>
+      <c r="V50" s="38"/>
+      <c r="W50" s="38"/>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+      <c r="AF50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="38"/>
+      <c r="AK50" s="38"/>
+      <c r="AL50" s="38"/>
+      <c r="AM50" s="38"/>
+      <c r="AN50" s="38"/>
+      <c r="AO50" s="38"/>
+      <c r="AP50" s="38"/>
+      <c r="AQ50" s="38"/>
+      <c r="AR50" s="40"/>
+      <c r="AS50" s="40"/>
+      <c r="AT50" s="40"/>
+      <c r="AU50" s="40"/>
+      <c r="AV50" s="40"/>
+      <c r="AW50" s="38"/>
+      <c r="AX50" s="38"/>
+      <c r="AY50" s="38"/>
+      <c r="AZ50" s="38"/>
+      <c r="BA50" s="38"/>
+      <c r="BB50" s="38"/>
+      <c r="BC50" s="38"/>
+      <c r="BD50" s="38"/>
+      <c r="BE50" s="38"/>
+      <c r="BF50" s="38"/>
+      <c r="BG50" s="41"/>
+      <c r="BH50" s="41"/>
+      <c r="BI50" s="41"/>
+      <c r="BJ50" s="41"/>
+      <c r="BK50" s="41"/>
+      <c r="BL50" s="38"/>
+      <c r="BM50" s="38"/>
+      <c r="BN50" s="38"/>
+      <c r="BO50" s="38"/>
+      <c r="BP50" s="38"/>
+      <c r="BQ50" s="38"/>
+      <c r="BR50" s="38"/>
+      <c r="BS50" s="38"/>
+      <c r="BT50" s="38"/>
+      <c r="BU50" s="38"/>
+      <c r="BV50" s="38"/>
+      <c r="BW50" s="38"/>
+      <c r="BX50" s="38"/>
+      <c r="BY50" s="38"/>
+      <c r="BZ50" s="38"/>
+    </row>
+    <row r="51" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="35">
+        <v>45231</v>
+      </c>
+      <c r="F51" s="35">
+        <v>45245</v>
+      </c>
+      <c r="G51" s="36">
+        <f t="shared" ref="G50:G52" si="5">DAYS360(E51,F51)</f>
+        <v>14</v>
+      </c>
+      <c r="I51" s="80"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
+      <c r="AB51" s="38"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+      <c r="AF51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AH51" s="38"/>
+      <c r="AI51" s="38"/>
+      <c r="AJ51" s="38"/>
+      <c r="AK51" s="38"/>
+      <c r="AL51" s="38"/>
+      <c r="AM51" s="38"/>
+      <c r="AN51" s="38"/>
+      <c r="AO51" s="38"/>
+      <c r="AP51" s="38"/>
+      <c r="AQ51" s="38"/>
+      <c r="AR51" s="40"/>
+      <c r="AS51" s="40"/>
+      <c r="AT51" s="40"/>
+      <c r="AU51" s="40"/>
+      <c r="AV51" s="40"/>
+      <c r="AW51" s="38"/>
+      <c r="AX51" s="38"/>
+      <c r="AY51" s="38"/>
+      <c r="AZ51" s="38"/>
+      <c r="BA51" s="38"/>
+      <c r="BB51" s="38"/>
+      <c r="BC51" s="38"/>
+      <c r="BD51" s="38"/>
+      <c r="BE51" s="38"/>
+      <c r="BF51" s="38"/>
+      <c r="BG51" s="41"/>
+      <c r="BH51" s="41"/>
+      <c r="BI51" s="41"/>
+      <c r="BJ51" s="41"/>
+      <c r="BK51" s="41"/>
+      <c r="BL51" s="38"/>
+      <c r="BM51" s="38"/>
+      <c r="BN51" s="38"/>
+      <c r="BO51" s="38"/>
+      <c r="BP51" s="38"/>
+      <c r="BQ51" s="38"/>
+      <c r="BR51" s="38"/>
+      <c r="BS51" s="38"/>
+      <c r="BT51" s="38"/>
+      <c r="BU51" s="38"/>
+      <c r="BV51" s="38"/>
+      <c r="BW51" s="38"/>
+      <c r="BX51" s="38"/>
+      <c r="BY51" s="38"/>
+      <c r="BZ51" s="38"/>
+    </row>
+    <row r="52" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="35">
+        <v>45245</v>
+      </c>
+      <c r="F52" s="35">
+        <v>45259</v>
+      </c>
+      <c r="G52" s="36">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H52" s="37"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="38"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="38"/>
+      <c r="W52" s="38"/>
+      <c r="X52" s="38"/>
+      <c r="Y52" s="38"/>
+      <c r="Z52" s="38"/>
+      <c r="AA52" s="38"/>
+      <c r="AB52" s="38"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="38"/>
+      <c r="AI52" s="38"/>
+      <c r="AJ52" s="38"/>
+      <c r="AK52" s="38"/>
+      <c r="AL52" s="38"/>
+      <c r="AM52" s="38"/>
+      <c r="AN52" s="38"/>
+      <c r="AO52" s="38"/>
+      <c r="AP52" s="38"/>
+      <c r="AQ52" s="38"/>
+      <c r="AR52" s="40"/>
+      <c r="AS52" s="40"/>
+      <c r="AT52" s="40"/>
+      <c r="AU52" s="40"/>
+      <c r="AV52" s="40"/>
+      <c r="AW52" s="38"/>
+      <c r="AX52" s="38"/>
+      <c r="AY52" s="38"/>
+      <c r="AZ52" s="38"/>
+      <c r="BA52" s="38"/>
+      <c r="BB52" s="38"/>
+      <c r="BC52" s="38"/>
+      <c r="BD52" s="38"/>
+      <c r="BE52" s="38"/>
+      <c r="BF52" s="38"/>
+      <c r="BG52" s="41"/>
+      <c r="BH52" s="41"/>
+      <c r="BI52" s="41"/>
+      <c r="BJ52" s="41"/>
+      <c r="BK52" s="41"/>
+      <c r="BL52" s="38"/>
+      <c r="BM52" s="38"/>
+      <c r="BN52" s="38"/>
+      <c r="BO52" s="38"/>
+      <c r="BP52" s="38"/>
+      <c r="BQ52" s="38"/>
+      <c r="BR52" s="38"/>
+      <c r="BS52" s="38"/>
+      <c r="BT52" s="38"/>
+      <c r="BU52" s="38"/>
+      <c r="BV52" s="38"/>
+      <c r="BW52" s="38"/>
+      <c r="BX52" s="38"/>
+      <c r="BY52" s="38"/>
+      <c r="BZ52" s="38"/>
+    </row>
+    <row r="53" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="35">
+        <v>45259</v>
+      </c>
+      <c r="F53" s="35">
+        <v>45273</v>
+      </c>
+      <c r="G53" s="36">
+        <v>14</v>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="38"/>
+      <c r="T53" s="38"/>
+      <c r="U53" s="38"/>
+      <c r="V53" s="38"/>
+      <c r="W53" s="38"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38"/>
+      <c r="Z53" s="38"/>
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="38"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="38"/>
+      <c r="AJ53" s="38"/>
+      <c r="AK53" s="38"/>
+      <c r="AL53" s="38"/>
+      <c r="AM53" s="38"/>
+      <c r="AN53" s="38"/>
+      <c r="AO53" s="38"/>
+      <c r="AP53" s="38"/>
+      <c r="AQ53" s="38"/>
+      <c r="AR53" s="40"/>
+      <c r="AS53" s="40"/>
+      <c r="AT53" s="40"/>
+      <c r="AU53" s="40"/>
+      <c r="AV53" s="40"/>
+      <c r="AW53" s="38"/>
+      <c r="AX53" s="38"/>
+      <c r="AY53" s="38"/>
+      <c r="AZ53" s="38"/>
+      <c r="BA53" s="38"/>
+      <c r="BB53" s="38"/>
+      <c r="BC53" s="38"/>
+      <c r="BD53" s="38"/>
+      <c r="BE53" s="38"/>
+      <c r="BF53" s="38"/>
+      <c r="BG53" s="41"/>
+      <c r="BH53" s="41"/>
+      <c r="BI53" s="41"/>
+      <c r="BJ53" s="41"/>
+      <c r="BK53" s="41"/>
+      <c r="BL53" s="38"/>
+      <c r="BM53" s="38"/>
+      <c r="BN53" s="38"/>
+      <c r="BO53" s="38"/>
+      <c r="BP53" s="38"/>
+      <c r="BQ53" s="38"/>
+      <c r="BR53" s="38"/>
+      <c r="BS53" s="38"/>
+      <c r="BT53" s="38"/>
+      <c r="BU53" s="38"/>
+      <c r="BV53" s="38"/>
+      <c r="BW53" s="38"/>
+      <c r="BX53" s="38"/>
+      <c r="BY53" s="38"/>
+      <c r="BZ53" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="36">
     <mergeCell ref="E8:E9"/>
@@ -5084,7 +6375,7 @@
     <mergeCell ref="BV9:BZ9"/>
     <mergeCell ref="S9:W9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H11:H17 H19:H44">
+  <conditionalFormatting sqref="H11:H17 H19:H53">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>

--- a/Gantt_Chart.xlsx
+++ b/Gantt_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linja\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linja\OneDrive\Desktop\CPS353\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE9F23-5DEB-49D8-AADF-3DAAF307A999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574DEC0A-F27A-462C-A66D-7471E56E2684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="0" windowWidth="19128" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Create a Template</t>
   </si>
   <si>
-    <t>Create a Theme</t>
-  </si>
-  <si>
     <t>Jacy</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>4.3.1</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
     <t>Everyone</t>
   </si>
   <si>
@@ -215,9 +209,6 @@
     <t>Sign Up Page</t>
   </si>
   <si>
-    <t>Create an HTML/CSS Page</t>
-  </si>
-  <si>
     <t>Ask school for Data Permission</t>
   </si>
   <si>
@@ -246,12 +237,6 @@
   </si>
   <si>
     <t>Profile Page</t>
-  </si>
-  <si>
-    <t>HTML/CSS - Login Page</t>
-  </si>
-  <si>
-    <t>HTML/CSS - Sign Up Page</t>
   </si>
   <si>
     <t>SSH Access/Web Servers</t>
@@ -346,13 +331,132 @@
     <t>Ramses</t>
   </si>
   <si>
+    <t xml:space="preserve">Github - Login Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Sign Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Calendar Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Classes Page Maintanence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github - Faculty Page Maintanence </t>
+  </si>
+  <si>
+    <t>Maintanence - Ensure Page Works</t>
+  </si>
+  <si>
+    <t>Design an overall flowchart</t>
+  </si>
+  <si>
+    <t>SQL Diagram - Sign Up Page</t>
+  </si>
+  <si>
+    <t>SQL Diagram - Login Page</t>
+  </si>
+  <si>
+    <t>SQL Diagram - Calendar Page</t>
+  </si>
+  <si>
+    <t>SQL Diagram - Classes Page</t>
+  </si>
+  <si>
+    <t>SQL Diagram - Faculty Page</t>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+  </si>
+  <si>
+    <t>Flowchart - Login Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Sign Up Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Calendar Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Classes Page</t>
+  </si>
+  <si>
+    <t>Flowchart - Faculty Page</t>
+  </si>
+  <si>
+    <t>HTML - Landing Page</t>
+  </si>
+  <si>
+    <t>HTML - Faculty Page</t>
+  </si>
+  <si>
+    <t>HTML - Admin Page</t>
+  </si>
+  <si>
+    <t>HTML - Classes Page</t>
+  </si>
+  <si>
+    <t>HTML - Calendar Page</t>
+  </si>
+  <si>
+    <t>HTML - Sign Up Page</t>
+  </si>
+  <si>
+    <t>HTML - Login Page</t>
+  </si>
+  <si>
+    <t>HTML - About Page</t>
+  </si>
+  <si>
+    <t>CSS - Landing Page</t>
+  </si>
+  <si>
+    <t>CSS - Login Page</t>
+  </si>
+  <si>
+    <t>CSS - Sign Up Page</t>
+  </si>
+  <si>
+    <t>CSS - About Page</t>
+  </si>
+  <si>
+    <t>CSS - Calendar Page</t>
+  </si>
+  <si>
+    <t>CSS - Classes Page</t>
+  </si>
+  <si>
+    <t>CSS - Faculty Page</t>
+  </si>
+  <si>
+    <t>CSS - Admin Page</t>
+  </si>
+  <si>
+    <r>
+      <t>Max</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="5" tint="-0.499984740745262"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>Jacy</t>
+      <t>/Jacy</t>
+    </r>
+  </si>
+  <si>
+    <t>HTML - Navigation Bar</t>
+  </si>
+  <si>
+    <t>CSS - Navigation Bar</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <r>
+      <t>Max</t>
     </r>
     <r>
       <rPr>
@@ -364,58 +468,67 @@
     </r>
   </si>
   <si>
-    <t>HTML/CSS - Calendar Page</t>
-  </si>
-  <si>
-    <t>HTML/CSS - Classes Page</t>
-  </si>
-  <si>
-    <t>HTML/CSS - Faculty Page</t>
-  </si>
-  <si>
-    <t>HTML/CSS - Profile Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github - Login Page Maintanence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github - Sign Page Maintanence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github - Calendar Page Maintanence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github - Classes Page Maintanence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github - Profile Page Maintanence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Github - Faculty Page Maintanence </t>
-  </si>
-  <si>
-    <t>Maintanence - Ensure Page Works</t>
-  </si>
-  <si>
-    <t>Design an overall flowchart</t>
-  </si>
-  <si>
-    <t>Flowchart - Login Page</t>
-  </si>
-  <si>
-    <t>Flowchart - Sign Up Page</t>
-  </si>
-  <si>
-    <t>Flowchart - Calendar Page</t>
-  </si>
-  <si>
-    <t>Flowchart - Classes Page</t>
-  </si>
-  <si>
-    <t>Flowchart - Faculty Page</t>
-  </si>
-  <si>
-    <t>Flowchart - Profile Page</t>
+    <t>HTML - Footer</t>
+  </si>
+  <si>
+    <t>CSS - Footer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/Jacy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>/Ramses</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>ADA Compliance Checking</t>
+  </si>
+  <si>
+    <t>Responsiveness Fixes</t>
+  </si>
+  <si>
+    <t>Consistency Fixes</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
   </si>
 </sst>
 </file>
@@ -727,12 +840,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
@@ -752,6 +859,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
@@ -917,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1061,16 +1174,13 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,6 +1190,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1128,39 +1277,8 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="27" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,10 +1601,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BZ53"/>
+  <dimension ref="A1:BZ72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC40" sqref="AC40:AG40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="32" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="AF74" sqref="AF74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1582,38 +1700,38 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -1744,41 +1862,41 @@
     </row>
     <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="76" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -1832,40 +1950,40 @@
     </row>
     <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1"/>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="68">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="80">
         <v>45179</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2010,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -2090,205 +2208,205 @@
     </row>
     <row r="8" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="58"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="59"/>
-      <c r="AV8" s="59"/>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="59"/>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="59"/>
-      <c r="BA8" s="59"/>
-      <c r="BB8" s="58"/>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="59"/>
-      <c r="BE8" s="59"/>
-      <c r="BF8" s="59"/>
-      <c r="BG8" s="59"/>
-      <c r="BH8" s="59"/>
-      <c r="BI8" s="59"/>
-      <c r="BJ8" s="59"/>
-      <c r="BK8" s="59"/>
-      <c r="BL8" s="59"/>
-      <c r="BM8" s="59"/>
-      <c r="BN8" s="59"/>
-      <c r="BO8" s="59"/>
-      <c r="BP8" s="59"/>
-      <c r="BQ8" s="59"/>
-      <c r="BR8" s="59"/>
-      <c r="BS8" s="59"/>
-      <c r="BT8" s="59"/>
-      <c r="BU8" s="59"/>
-      <c r="BV8" s="59"/>
-      <c r="BW8" s="59"/>
-      <c r="BX8" s="59"/>
-      <c r="BY8" s="59"/>
-      <c r="BZ8" s="60"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="71"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="71"/>
+      <c r="BG8" s="71"/>
+      <c r="BH8" s="71"/>
+      <c r="BI8" s="71"/>
+      <c r="BJ8" s="71"/>
+      <c r="BK8" s="71"/>
+      <c r="BL8" s="71"/>
+      <c r="BM8" s="71"/>
+      <c r="BN8" s="71"/>
+      <c r="BO8" s="71"/>
+      <c r="BP8" s="71"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="71"/>
+      <c r="BS8" s="71"/>
+      <c r="BT8" s="71"/>
+      <c r="BU8" s="71"/>
+      <c r="BV8" s="71"/>
+      <c r="BW8" s="71"/>
+      <c r="BX8" s="71"/>
+      <c r="BY8" s="71"/>
+      <c r="BZ8" s="72"/>
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="61" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="61" t="s">
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="61" t="s">
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="63"/>
-      <c r="X9" s="61" t="s">
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="61" t="s">
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="61" t="s">
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="61" t="s">
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="63"/>
-      <c r="AR9" s="61" t="s">
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="61" t="s">
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="61" t="s">
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="63"/>
-      <c r="BG9" s="61" t="s">
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="75"/>
+      <c r="BG9" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="BH9" s="62"/>
-      <c r="BI9" s="62"/>
-      <c r="BJ9" s="62"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="61" t="s">
+      <c r="BH9" s="74"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="74"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="BM9" s="62"/>
-      <c r="BN9" s="62"/>
-      <c r="BO9" s="62"/>
-      <c r="BP9" s="63"/>
-      <c r="BQ9" s="61" t="s">
+      <c r="BM9" s="74"/>
+      <c r="BN9" s="74"/>
+      <c r="BO9" s="74"/>
+      <c r="BP9" s="75"/>
+      <c r="BQ9" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="BR9" s="62"/>
-      <c r="BS9" s="62"/>
-      <c r="BT9" s="62"/>
-      <c r="BU9" s="63"/>
-      <c r="BV9" s="61" t="s">
+      <c r="BR9" s="74"/>
+      <c r="BS9" s="74"/>
+      <c r="BT9" s="74"/>
+      <c r="BU9" s="75"/>
+      <c r="BV9" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="BW9" s="62"/>
-      <c r="BX9" s="62"/>
-      <c r="BY9" s="62"/>
-      <c r="BZ9" s="63"/>
+      <c r="BW9" s="74"/>
+      <c r="BX9" s="74"/>
+      <c r="BY9" s="74"/>
+      <c r="BZ9" s="75"/>
     </row>
     <row r="10" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
@@ -2306,98 +2424,98 @@
       <c r="I10" s="29"/>
       <c r="J10" s="30"/>
       <c r="K10" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
       <c r="P10" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="V10" s="29"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
       <c r="Y10" s="29"/>
       <c r="Z10" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA10" s="29"/>
       <c r="AB10" s="29"/>
       <c r="AC10" s="29"/>
       <c r="AD10" s="29"/>
       <c r="AE10" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AF10" s="29"/>
       <c r="AG10" s="29"/>
       <c r="AH10" s="29"/>
       <c r="AI10" s="29"/>
       <c r="AJ10" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK10" s="29"/>
       <c r="AL10" s="29"/>
       <c r="AM10" s="29"/>
       <c r="AN10" s="29"/>
       <c r="AO10" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AP10" s="29"/>
       <c r="AQ10" s="29"/>
       <c r="AR10" s="29"/>
       <c r="AS10" s="29"/>
       <c r="AT10" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AU10" s="29"/>
       <c r="AV10" s="29"/>
       <c r="AW10" s="29"/>
       <c r="AX10" s="29"/>
       <c r="AY10" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="29"/>
       <c r="BB10" s="29"/>
       <c r="BC10" s="29"/>
       <c r="BD10" s="29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BE10" s="29"/>
       <c r="BF10" s="29"/>
       <c r="BG10" s="29"/>
       <c r="BH10" s="29"/>
       <c r="BI10" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BJ10" s="29"/>
       <c r="BK10" s="29"/>
       <c r="BL10" s="29"/>
       <c r="BM10" s="29"/>
       <c r="BN10" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BO10" s="29"/>
       <c r="BP10" s="29"/>
       <c r="BQ10" s="29"/>
       <c r="BR10" s="29"/>
       <c r="BS10" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BT10" s="29"/>
       <c r="BU10" s="29"/>
       <c r="BV10" s="29"/>
       <c r="BW10" s="29"/>
       <c r="BX10" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BY10" s="29"/>
       <c r="BZ10" s="29"/>
@@ -2410,8 +2528,8 @@
       <c r="C11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>51</v>
+      <c r="D11" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E11" s="35">
         <v>45166</v>
@@ -2424,11 +2542,11 @@
         <v>6</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
@@ -2503,8 +2621,8 @@
       <c r="C12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>46</v>
+      <c r="D12" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="35">
         <v>45166</v>
@@ -2517,11 +2635,11 @@
         <v>6</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
@@ -2597,7 +2715,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="35">
         <v>45166</v>
@@ -2610,11 +2728,11 @@
         <v>6</v>
       </c>
       <c r="H13" s="37"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
@@ -2689,8 +2807,8 @@
       <c r="C14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="86" t="s">
-        <v>46</v>
+      <c r="D14" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E14" s="35">
         <v>45173</v>
@@ -2703,11 +2821,11 @@
         <v>2</v>
       </c>
       <c r="H14" s="37"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
@@ -2783,7 +2901,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="35">
         <v>45166</v>
@@ -2796,11 +2914,11 @@
         <v>6</v>
       </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
@@ -2873,10 +2991,10 @@
         <v>1.5</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="35">
         <v>45182</v>
@@ -2889,16 +3007,16 @@
         <v>7</v>
       </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
       <c r="U16" s="38"/>
@@ -2966,10 +3084,10 @@
         <v>1.5</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="87" t="s">
-        <v>46</v>
+        <v>68</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="35">
         <v>45182</v>
@@ -2982,16 +3100,16 @@
         <v>7</v>
       </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="38"/>
       <c r="T17" s="38"/>
       <c r="U17" s="38"/>
@@ -3066,11 +3184,11 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="52"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
@@ -3145,8 +3263,8 @@
       <c r="C19" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="86" t="s">
-        <v>46</v>
+      <c r="D19" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="35">
         <v>45180</v>
@@ -3158,16 +3276,16 @@
         <v>7</v>
       </c>
       <c r="H19" s="45"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
       <c r="U19" s="38"/>
@@ -3235,10 +3353,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C20" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="63" t="s">
         <v>45</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="35">
         <v>45187</v>
@@ -3250,21 +3368,21 @@
         <v>7</v>
       </c>
       <c r="H20" s="45"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
       <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
@@ -3327,10 +3445,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E21" s="35">
         <v>45187</v>
@@ -3342,21 +3460,21 @@
         <v>7</v>
       </c>
       <c r="H21" s="45"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
       <c r="R21" s="42"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
       <c r="X21" s="38"/>
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
@@ -3419,10 +3537,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>51</v>
       </c>
       <c r="E22" s="35">
         <v>45180</v>
@@ -3434,16 +3552,16 @@
         <v>7</v>
       </c>
       <c r="H22" s="45"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
@@ -3510,11 +3628,11 @@
       <c r="B23" s="33">
         <v>2.4</v>
       </c>
-      <c r="C23" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>57</v>
+      <c r="C23" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E23" s="35">
         <v>45182</v>
@@ -3527,21 +3645,21 @@
         <v>7</v>
       </c>
       <c r="H23" s="45"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
       <c r="N23" s="42"/>
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
       <c r="R23" s="42"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
@@ -3603,11 +3721,11 @@
       <c r="B24" s="33">
         <v>2.5</v>
       </c>
-      <c r="C24" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="90" t="s">
-        <v>57</v>
+      <c r="C24" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E24" s="35">
         <v>45189</v>
@@ -3619,11 +3737,11 @@
         <v>7</v>
       </c>
       <c r="H24" s="45"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
@@ -3634,11 +3752,11 @@
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
       <c r="W24" s="38"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
       <c r="AC24" s="39"/>
       <c r="AD24" s="39"/>
       <c r="AE24" s="39"/>
@@ -3695,11 +3813,11 @@
       <c r="B25" s="33">
         <v>2.6</v>
       </c>
-      <c r="C25" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="90" t="s">
-        <v>57</v>
+      <c r="C25" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E25" s="35">
         <v>45203</v>
@@ -3711,11 +3829,11 @@
         <v>7</v>
       </c>
       <c r="H25" s="45"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
@@ -3731,11 +3849,11 @@
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
       <c r="AB25" s="38"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="39"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
       <c r="AH25" s="38"/>
       <c r="AI25" s="38"/>
       <c r="AJ25" s="43"/>
@@ -3787,11 +3905,11 @@
       <c r="B26" s="33">
         <v>2.7</v>
       </c>
-      <c r="C26" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="90" t="s">
-        <v>57</v>
+      <c r="C26" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="35">
         <v>45210</v>
@@ -3800,15 +3918,15 @@
         <v>45217</v>
       </c>
       <c r="G26" s="36">
-        <f t="shared" ref="G26:G27" si="2">DAYS360(E26,F26)</f>
+        <f t="shared" ref="G26" si="2">DAYS360(E26,F26)</f>
         <v>7</v>
       </c>
       <c r="H26" s="45"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
@@ -3829,11 +3947,11 @@
       <c r="AE26" s="39"/>
       <c r="AF26" s="39"/>
       <c r="AG26" s="39"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="43"/>
-      <c r="AL26" s="43"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="68"/>
+      <c r="AK26" s="68"/>
+      <c r="AL26" s="68"/>
       <c r="AM26" s="43"/>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43"/>
@@ -3880,11 +3998,11 @@
       <c r="B27" s="33">
         <v>2.8</v>
       </c>
-      <c r="C27" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="90" t="s">
-        <v>57</v>
+      <c r="C27" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E27" s="35">
         <v>45217</v>
@@ -3896,11 +4014,11 @@
         <v>14</v>
       </c>
       <c r="H27" s="45"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="42"/>
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
@@ -3926,11 +4044,11 @@
       <c r="AJ27" s="43"/>
       <c r="AK27" s="43"/>
       <c r="AL27" s="43"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="43"/>
-      <c r="AO27" s="43"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="43"/>
+      <c r="AM27" s="68"/>
+      <c r="AN27" s="68"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
       <c r="AR27" s="40"/>
       <c r="AS27" s="40"/>
       <c r="AT27" s="40"/>
@@ -3972,11 +4090,11 @@
       <c r="B28" s="33">
         <v>2.9</v>
       </c>
-      <c r="C28" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="90" t="s">
-        <v>57</v>
+      <c r="C28" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E28" s="35">
         <v>45231</v>
@@ -3988,11 +4106,11 @@
         <v>14</v>
       </c>
       <c r="H28" s="45"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
       <c r="N28" s="42"/>
       <c r="O28" s="42"/>
       <c r="P28" s="42"/>
@@ -4023,11 +4141,11 @@
       <c r="AO28" s="43"/>
       <c r="AP28" s="43"/>
       <c r="AQ28" s="43"/>
-      <c r="AR28" s="40"/>
-      <c r="AS28" s="40"/>
-      <c r="AT28" s="40"/>
-      <c r="AU28" s="40"/>
-      <c r="AV28" s="40"/>
+      <c r="AR28" s="68"/>
+      <c r="AS28" s="68"/>
+      <c r="AT28" s="68"/>
+      <c r="AU28" s="68"/>
+      <c r="AV28" s="68"/>
       <c r="AW28" s="38"/>
       <c r="AX28" s="38"/>
       <c r="AY28" s="38"/>
@@ -4064,11 +4182,11 @@
       <c r="B29" s="44">
         <v>2.1</v>
       </c>
-      <c r="C29" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="90" t="s">
-        <v>57</v>
+      <c r="C29" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E29" s="35">
         <v>45245</v>
@@ -4081,11 +4199,11 @@
         <v>14</v>
       </c>
       <c r="H29" s="45"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="42"/>
       <c r="O29" s="42"/>
       <c r="P29" s="42"/>
@@ -4121,11 +4239,11 @@
       <c r="AT29" s="40"/>
       <c r="AU29" s="40"/>
       <c r="AV29" s="40"/>
-      <c r="AW29" s="38"/>
-      <c r="AX29" s="38"/>
-      <c r="AY29" s="38"/>
-      <c r="AZ29" s="38"/>
-      <c r="BA29" s="38"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
       <c r="BB29" s="38"/>
       <c r="BC29" s="38"/>
       <c r="BD29" s="38"/>
@@ -4154,30 +4272,30 @@
     </row>
     <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
-      <c r="B30" s="44">
-        <v>2.11</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="90" t="s">
-        <v>57</v>
+      <c r="B30" s="33">
+        <v>2.6</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E30" s="35">
-        <v>45259</v>
+        <v>45203</v>
       </c>
       <c r="F30" s="35">
-        <v>45273</v>
+        <v>45210</v>
       </c>
       <c r="G30" s="36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H30" s="45"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
       <c r="P30" s="42"/>
@@ -4200,14 +4318,14 @@
       <c r="AG30" s="39"/>
       <c r="AH30" s="38"/>
       <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="38"/>
-      <c r="AM30" s="38"/>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
       <c r="AR30" s="40"/>
       <c r="AS30" s="40"/>
       <c r="AT30" s="40"/>
@@ -4218,11 +4336,11 @@
       <c r="AY30" s="38"/>
       <c r="AZ30" s="38"/>
       <c r="BA30" s="38"/>
-      <c r="BB30" s="38"/>
-      <c r="BC30" s="38"/>
-      <c r="BD30" s="38"/>
-      <c r="BE30" s="38"/>
-      <c r="BF30" s="38"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
+      <c r="BD30" s="68"/>
+      <c r="BE30" s="68"/>
+      <c r="BF30" s="68"/>
       <c r="BG30" s="41"/>
       <c r="BH30" s="41"/>
       <c r="BI30" s="41"/>
@@ -4244,117 +4362,125 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26">
-        <v>3</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="29"/>
-      <c r="AL31" s="29"/>
-      <c r="AM31" s="29"/>
-      <c r="AN31" s="29"/>
-      <c r="AO31" s="29"/>
-      <c r="AP31" s="29"/>
-      <c r="AQ31" s="29"/>
-      <c r="AR31" s="29"/>
-      <c r="AS31" s="29"/>
-      <c r="AT31" s="29"/>
-      <c r="AU31" s="29"/>
-      <c r="AV31" s="29"/>
-      <c r="AW31" s="29"/>
-      <c r="AX31" s="29"/>
-      <c r="AY31" s="29"/>
-      <c r="AZ31" s="29"/>
-      <c r="BA31" s="29"/>
-      <c r="BB31" s="29"/>
-      <c r="BC31" s="29"/>
-      <c r="BD31" s="29"/>
-      <c r="BE31" s="29"/>
-      <c r="BF31" s="29"/>
-      <c r="BG31" s="29"/>
-      <c r="BH31" s="29"/>
-      <c r="BI31" s="29"/>
-      <c r="BJ31" s="29"/>
-      <c r="BK31" s="29"/>
-      <c r="BL31" s="29"/>
-      <c r="BM31" s="29"/>
-      <c r="BN31" s="29"/>
-      <c r="BO31" s="29"/>
-      <c r="BP31" s="29"/>
-      <c r="BQ31" s="29"/>
-      <c r="BR31" s="29"/>
-      <c r="BS31" s="29"/>
-      <c r="BT31" s="29"/>
-      <c r="BU31" s="29"/>
-      <c r="BV31" s="29"/>
-      <c r="BW31" s="29"/>
-      <c r="BX31" s="29"/>
-      <c r="BY31" s="29"/>
-      <c r="BZ31" s="29"/>
+    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33">
+        <v>2.7</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F31" s="35">
+        <v>45217</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" ref="G31" si="3">DAYS360(E31,F31)</f>
+        <v>7</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="40"/>
+      <c r="AS31" s="40"/>
+      <c r="AT31" s="40"/>
+      <c r="AU31" s="40"/>
+      <c r="AV31" s="40"/>
+      <c r="AW31" s="38"/>
+      <c r="AX31" s="38"/>
+      <c r="AY31" s="38"/>
+      <c r="AZ31" s="38"/>
+      <c r="BA31" s="38"/>
+      <c r="BB31" s="38"/>
+      <c r="BC31" s="38"/>
+      <c r="BD31" s="38"/>
+      <c r="BE31" s="38"/>
+      <c r="BF31" s="38"/>
+      <c r="BG31" s="68"/>
+      <c r="BH31" s="68"/>
+      <c r="BI31" s="68"/>
+      <c r="BJ31" s="68"/>
+      <c r="BK31" s="68"/>
+      <c r="BL31" s="38"/>
+      <c r="BM31" s="38"/>
+      <c r="BN31" s="38"/>
+      <c r="BO31" s="38"/>
+      <c r="BP31" s="38"/>
+      <c r="BQ31" s="38"/>
+      <c r="BR31" s="38"/>
+      <c r="BS31" s="38"/>
+      <c r="BT31" s="38"/>
+      <c r="BU31" s="38"/>
+      <c r="BV31" s="38"/>
+      <c r="BW31" s="38"/>
+      <c r="BX31" s="38"/>
+      <c r="BY31" s="38"/>
+      <c r="BZ31" s="38"/>
     </row>
     <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
-        <v>3.1</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>77</v>
+        <v>2.8</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E32" s="35">
-        <v>45189</v>
+        <v>45217</v>
       </c>
       <c r="F32" s="35">
-        <v>45196</v>
+        <v>45231</v>
       </c>
       <c r="G32" s="36">
-        <f>DAYS360(E32,F32)</f>
-        <v>7</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
+        <v>14</v>
+      </c>
+      <c r="H32" s="45"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
       <c r="N32" s="42"/>
       <c r="O32" s="42"/>
       <c r="P32" s="42"/>
@@ -4365,11 +4491,11 @@
       <c r="U32" s="38"/>
       <c r="V32" s="38"/>
       <c r="W32" s="38"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="55"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="38"/>
       <c r="AC32" s="39"/>
       <c r="AD32" s="39"/>
       <c r="AE32" s="39"/>
@@ -4377,14 +4503,14 @@
       <c r="AG32" s="39"/>
       <c r="AH32" s="38"/>
       <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
       <c r="AR32" s="40"/>
       <c r="AS32" s="40"/>
       <c r="AT32" s="40"/>
@@ -4405,11 +4531,11 @@
       <c r="BI32" s="41"/>
       <c r="BJ32" s="41"/>
       <c r="BK32" s="41"/>
-      <c r="BL32" s="38"/>
-      <c r="BM32" s="38"/>
-      <c r="BN32" s="38"/>
-      <c r="BO32" s="38"/>
-      <c r="BP32" s="38"/>
+      <c r="BL32" s="68"/>
+      <c r="BM32" s="68"/>
+      <c r="BN32" s="68"/>
+      <c r="BO32" s="68"/>
+      <c r="BP32" s="68"/>
       <c r="BQ32" s="38"/>
       <c r="BR32" s="38"/>
       <c r="BS32" s="38"/>
@@ -4424,29 +4550,29 @@
     <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="33">
-        <v>3.2</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>77</v>
+        <v>2.9</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E33" s="35">
-        <v>45203</v>
+        <v>45231</v>
       </c>
       <c r="F33" s="35">
-        <v>45210</v>
+        <v>45245</v>
       </c>
       <c r="G33" s="36">
-        <v>7</v>
-      </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
+        <v>14</v>
+      </c>
+      <c r="H33" s="45"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
       <c r="N33" s="42"/>
       <c r="O33" s="42"/>
       <c r="P33" s="42"/>
@@ -4462,21 +4588,21 @@
       <c r="Z33" s="38"/>
       <c r="AA33" s="38"/>
       <c r="AB33" s="38"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="91"/>
-      <c r="AE33" s="91"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+      <c r="AF33" s="39"/>
+      <c r="AG33" s="39"/>
       <c r="AH33" s="38"/>
       <c r="AI33" s="38"/>
-      <c r="AJ33" s="38"/>
-      <c r="AK33" s="38"/>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="43"/>
+      <c r="AO33" s="43"/>
+      <c r="AP33" s="43"/>
+      <c r="AQ33" s="43"/>
       <c r="AR33" s="40"/>
       <c r="AS33" s="40"/>
       <c r="AT33" s="40"/>
@@ -4502,11 +4628,11 @@
       <c r="BN33" s="38"/>
       <c r="BO33" s="38"/>
       <c r="BP33" s="38"/>
-      <c r="BQ33" s="38"/>
-      <c r="BR33" s="38"/>
-      <c r="BS33" s="38"/>
-      <c r="BT33" s="38"/>
-      <c r="BU33" s="38"/>
+      <c r="BQ33" s="68"/>
+      <c r="BR33" s="68"/>
+      <c r="BS33" s="68"/>
+      <c r="BT33" s="68"/>
+      <c r="BU33" s="68"/>
       <c r="BV33" s="38"/>
       <c r="BW33" s="38"/>
       <c r="BX33" s="38"/>
@@ -4515,31 +4641,31 @@
     </row>
     <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
-      <c r="B34" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="88" t="s">
-        <v>77</v>
+      <c r="B34" s="44">
+        <v>2.1</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E34" s="35">
-        <v>45210</v>
+        <v>45245</v>
       </c>
       <c r="F34" s="35">
-        <v>45217</v>
+        <v>45259</v>
       </c>
       <c r="G34" s="36">
-        <f t="shared" ref="G34:G36" si="3">DAYS360(E34,F34)</f>
-        <v>7</v>
-      </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
+        <f>DAYS360(E34,F34)</f>
+        <v>14</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
       <c r="N34" s="42"/>
       <c r="O34" s="42"/>
       <c r="P34" s="42"/>
@@ -4600,130 +4726,122 @@
       <c r="BS34" s="38"/>
       <c r="BT34" s="38"/>
       <c r="BU34" s="38"/>
-      <c r="BV34" s="38"/>
-      <c r="BW34" s="38"/>
-      <c r="BX34" s="38"/>
-      <c r="BY34" s="38"/>
-      <c r="BZ34" s="38"/>
+      <c r="BV34" s="68"/>
+      <c r="BW34" s="68"/>
+      <c r="BX34" s="68"/>
+      <c r="BY34" s="68"/>
+      <c r="BZ34" s="68"/>
     </row>
-    <row r="35" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33">
-        <v>3.3</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="35">
-        <v>45217</v>
-      </c>
-      <c r="F35" s="35">
-        <v>45231</v>
-      </c>
-      <c r="G35" s="36">
-        <v>14</v>
-      </c>
-      <c r="I35" s="80"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="38"/>
-      <c r="AK35" s="38"/>
-      <c r="AL35" s="38"/>
-      <c r="AM35" s="38"/>
-      <c r="AN35" s="38"/>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="38"/>
-      <c r="AQ35" s="38"/>
-      <c r="AR35" s="40"/>
-      <c r="AS35" s="40"/>
-      <c r="AT35" s="40"/>
-      <c r="AU35" s="40"/>
-      <c r="AV35" s="40"/>
-      <c r="AW35" s="38"/>
-      <c r="AX35" s="38"/>
-      <c r="AY35" s="38"/>
-      <c r="AZ35" s="38"/>
-      <c r="BA35" s="38"/>
-      <c r="BB35" s="38"/>
-      <c r="BC35" s="38"/>
-      <c r="BD35" s="38"/>
-      <c r="BE35" s="38"/>
-      <c r="BF35" s="38"/>
-      <c r="BG35" s="41"/>
-      <c r="BH35" s="41"/>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="38"/>
-      <c r="BM35" s="38"/>
-      <c r="BN35" s="38"/>
-      <c r="BO35" s="38"/>
-      <c r="BP35" s="38"/>
-      <c r="BQ35" s="38"/>
-      <c r="BR35" s="38"/>
-      <c r="BS35" s="38"/>
-      <c r="BT35" s="38"/>
-      <c r="BU35" s="38"/>
-      <c r="BV35" s="38"/>
-      <c r="BW35" s="38"/>
-      <c r="BX35" s="38"/>
-      <c r="BY35" s="38"/>
-      <c r="BZ35" s="38"/>
+    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="26">
+        <v>3</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="29"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="29"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
+      <c r="BB35" s="29"/>
+      <c r="BC35" s="29"/>
+      <c r="BD35" s="29"/>
+      <c r="BE35" s="29"/>
+      <c r="BF35" s="29"/>
+      <c r="BG35" s="29"/>
+      <c r="BH35" s="29"/>
+      <c r="BI35" s="29"/>
+      <c r="BJ35" s="29"/>
+      <c r="BK35" s="29"/>
+      <c r="BL35" s="29"/>
+      <c r="BM35" s="29"/>
+      <c r="BN35" s="29"/>
+      <c r="BO35" s="29"/>
+      <c r="BP35" s="29"/>
+      <c r="BQ35" s="29"/>
+      <c r="BR35" s="29"/>
+      <c r="BS35" s="29"/>
+      <c r="BT35" s="29"/>
+      <c r="BU35" s="29"/>
+      <c r="BV35" s="29"/>
+      <c r="BW35" s="29"/>
+      <c r="BX35" s="29"/>
+      <c r="BY35" s="29"/>
+      <c r="BZ35" s="29"/>
     </row>
     <row r="36" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="33">
-        <v>3.5</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="88" t="s">
-        <v>77</v>
+        <v>3.1</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E36" s="35">
-        <v>45231</v>
+        <v>45189</v>
       </c>
       <c r="F36" s="35">
-        <v>45245</v>
-      </c>
-      <c r="G36" s="36">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>45196</v>
+      </c>
+      <c r="G36" s="69">
+        <v>7</v>
       </c>
       <c r="H36" s="37"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
       <c r="P36" s="42"/>
@@ -4734,11 +4852,11 @@
       <c r="U36" s="38"/>
       <c r="V36" s="38"/>
       <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
+      <c r="X36" s="54"/>
+      <c r="Y36" s="54"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
       <c r="AC36" s="39"/>
       <c r="AD36" s="39"/>
       <c r="AE36" s="39"/>
@@ -4792,30 +4910,30 @@
     </row>
     <row r="37" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
-      <c r="B37" s="33">
-        <v>3.6</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="88" t="s">
-        <v>77</v>
+      <c r="B37" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E37" s="35">
-        <v>45245</v>
+        <v>45203</v>
       </c>
       <c r="F37" s="35">
-        <v>45259</v>
+        <v>45210</v>
       </c>
       <c r="G37" s="36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H37" s="37"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
@@ -4826,11 +4944,11 @@
       <c r="U37" s="38"/>
       <c r="V37" s="38"/>
       <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="54"/>
       <c r="AC37" s="39"/>
       <c r="AD37" s="39"/>
       <c r="AE37" s="39"/>
@@ -4885,29 +5003,29 @@
     <row r="38" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="33">
-        <v>3.7</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="88" t="s">
-        <v>77</v>
+        <v>3.2</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E38" s="35">
-        <v>45259</v>
+        <v>45203</v>
       </c>
       <c r="F38" s="35">
-        <v>45273</v>
+        <v>45210</v>
       </c>
       <c r="G38" s="36">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H38" s="37"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="42"/>
       <c r="O38" s="42"/>
       <c r="P38" s="42"/>
@@ -4923,11 +5041,11 @@
       <c r="Z38" s="38"/>
       <c r="AA38" s="38"/>
       <c r="AB38" s="38"/>
-      <c r="AC38" s="39"/>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
       <c r="AH38" s="38"/>
       <c r="AI38" s="38"/>
       <c r="AJ38" s="38"/>
@@ -4974,117 +5092,124 @@
       <c r="BY38" s="38"/>
       <c r="BZ38" s="38"/>
     </row>
-    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="26">
-        <v>4</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="29"/>
-      <c r="AL39" s="29"/>
-      <c r="AM39" s="29"/>
-      <c r="AN39" s="29"/>
-      <c r="AO39" s="29"/>
-      <c r="AP39" s="29"/>
-      <c r="AQ39" s="29"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="29"/>
-      <c r="AT39" s="29"/>
-      <c r="AU39" s="29"/>
-      <c r="AV39" s="29"/>
-      <c r="AW39" s="29"/>
-      <c r="AX39" s="29"/>
-      <c r="AY39" s="29"/>
-      <c r="AZ39" s="29"/>
-      <c r="BA39" s="29"/>
-      <c r="BB39" s="29"/>
-      <c r="BC39" s="29"/>
-      <c r="BD39" s="29"/>
-      <c r="BE39" s="29"/>
-      <c r="BF39" s="29"/>
-      <c r="BG39" s="29"/>
-      <c r="BH39" s="29"/>
-      <c r="BI39" s="29"/>
-      <c r="BJ39" s="29"/>
-      <c r="BK39" s="29"/>
-      <c r="BL39" s="29"/>
-      <c r="BM39" s="29"/>
-      <c r="BN39" s="29"/>
-      <c r="BO39" s="29"/>
-      <c r="BP39" s="29"/>
-      <c r="BQ39" s="29"/>
-      <c r="BR39" s="29"/>
-      <c r="BS39" s="29"/>
-      <c r="BT39" s="29"/>
-      <c r="BU39" s="29"/>
-      <c r="BV39" s="29"/>
-      <c r="BW39" s="29"/>
-      <c r="BX39" s="29"/>
-      <c r="BY39" s="29"/>
-      <c r="BZ39" s="29"/>
+    <row r="39" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F39" s="35">
+        <v>45217</v>
+      </c>
+      <c r="G39" s="36">
+        <f t="shared" ref="G39:G41" si="4">DAYS360(E39,F39)</f>
+        <v>7</v>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="68"/>
+      <c r="AL39" s="68"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="40"/>
+      <c r="AU39" s="40"/>
+      <c r="AV39" s="40"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="38"/>
+      <c r="BF39" s="38"/>
+      <c r="BG39" s="41"/>
+      <c r="BH39" s="41"/>
+      <c r="BI39" s="41"/>
+      <c r="BJ39" s="41"/>
+      <c r="BK39" s="41"/>
+      <c r="BL39" s="38"/>
+      <c r="BM39" s="38"/>
+      <c r="BN39" s="38"/>
+      <c r="BO39" s="38"/>
+      <c r="BP39" s="38"/>
+      <c r="BQ39" s="38"/>
+      <c r="BR39" s="38"/>
+      <c r="BS39" s="38"/>
+      <c r="BT39" s="38"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="38"/>
+      <c r="BW39" s="38"/>
+      <c r="BX39" s="38"/>
+      <c r="BY39" s="38"/>
+      <c r="BZ39" s="38"/>
     </row>
     <row r="40" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="89" t="s">
-        <v>53</v>
+        <v>3.3</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E40" s="35">
-        <v>45196</v>
+        <v>45217</v>
       </c>
       <c r="F40" s="35">
-        <v>45203</v>
+        <v>45231</v>
       </c>
       <c r="G40" s="36">
-        <f>DAYS360(E40,F40)</f>
-        <v>7</v>
-      </c>
-      <c r="H40" s="37"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
+        <v>14</v>
+      </c>
+      <c r="I40" s="57"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="42"/>
       <c r="O40" s="42"/>
       <c r="P40" s="42"/>
@@ -5100,21 +5225,21 @@
       <c r="Z40" s="38"/>
       <c r="AA40" s="38"/>
       <c r="AB40" s="38"/>
-      <c r="AC40" s="91"/>
-      <c r="AD40" s="91"/>
-      <c r="AE40" s="91"/>
-      <c r="AF40" s="91"/>
-      <c r="AG40" s="91"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
       <c r="AH40" s="38"/>
       <c r="AI40" s="38"/>
       <c r="AJ40" s="38"/>
       <c r="AK40" s="38"/>
       <c r="AL40" s="38"/>
-      <c r="AM40" s="38"/>
-      <c r="AN40" s="38"/>
-      <c r="AO40" s="38"/>
-      <c r="AP40" s="38"/>
-      <c r="AQ40" s="38"/>
+      <c r="AM40" s="68"/>
+      <c r="AN40" s="68"/>
+      <c r="AO40" s="68"/>
+      <c r="AP40" s="68"/>
+      <c r="AQ40" s="68"/>
       <c r="AR40" s="40"/>
       <c r="AS40" s="40"/>
       <c r="AT40" s="40"/>
@@ -5154,29 +5279,30 @@
     <row r="41" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="89" t="s">
-        <v>53</v>
+        <v>3.5</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E41" s="35">
-        <v>45203</v>
+        <v>45231</v>
       </c>
       <c r="F41" s="35">
-        <v>45210</v>
+        <v>45245</v>
       </c>
       <c r="G41" s="36">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>14</v>
       </c>
       <c r="H41" s="37"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
       <c r="N41" s="42"/>
       <c r="O41" s="42"/>
       <c r="P41" s="42"/>
@@ -5207,11 +5333,11 @@
       <c r="AO41" s="38"/>
       <c r="AP41" s="38"/>
       <c r="AQ41" s="38"/>
-      <c r="AR41" s="40"/>
-      <c r="AS41" s="40"/>
-      <c r="AT41" s="40"/>
-      <c r="AU41" s="40"/>
-      <c r="AV41" s="40"/>
+      <c r="AR41" s="68"/>
+      <c r="AS41" s="68"/>
+      <c r="AT41" s="68"/>
+      <c r="AU41" s="68"/>
+      <c r="AV41" s="68"/>
       <c r="AW41" s="38"/>
       <c r="AX41" s="38"/>
       <c r="AY41" s="38"/>
@@ -5245,31 +5371,30 @@
     </row>
     <row r="42" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
-      <c r="B42" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="89" t="s">
-        <v>53</v>
+      <c r="B42" s="33">
+        <v>3.6</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E42" s="35">
-        <v>45210</v>
+        <v>45245</v>
       </c>
       <c r="F42" s="35">
-        <v>45217</v>
+        <v>45259</v>
       </c>
       <c r="G42" s="36">
-        <f t="shared" ref="G42:G45" si="4">DAYS360(E42,F42)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H42" s="37"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
       <c r="N42" s="42"/>
       <c r="O42" s="42"/>
       <c r="P42" s="42"/>
@@ -5338,29 +5463,31 @@
     </row>
     <row r="43" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
-      <c r="B43" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="89" t="s">
-        <v>53</v>
+      <c r="B43" s="33">
+        <v>3.7</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E43" s="35">
-        <v>45217</v>
+        <v>45231</v>
       </c>
       <c r="F43" s="35">
-        <v>45231</v>
+        <v>45245</v>
       </c>
       <c r="G43" s="36">
+        <f t="shared" ref="G43:G44" si="5">DAYS360(E43,F43)</f>
         <v>14</v>
       </c>
-      <c r="I43" s="80"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="42"/>
       <c r="O43" s="42"/>
       <c r="P43" s="42"/>
@@ -5386,11 +5513,11 @@
       <c r="AJ43" s="38"/>
       <c r="AK43" s="38"/>
       <c r="AL43" s="38"/>
-      <c r="AM43" s="38"/>
-      <c r="AN43" s="38"/>
-      <c r="AO43" s="38"/>
-      <c r="AP43" s="38"/>
-      <c r="AQ43" s="38"/>
+      <c r="AM43" s="68"/>
+      <c r="AN43" s="68"/>
+      <c r="AO43" s="68"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="68"/>
       <c r="AR43" s="40"/>
       <c r="AS43" s="40"/>
       <c r="AT43" s="40"/>
@@ -5430,30 +5557,29 @@
     <row r="44" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="33">
-        <v>4.3</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>53</v>
+        <v>3.8</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E44" s="35">
-        <v>45231</v>
+        <v>45245</v>
       </c>
       <c r="F44" s="35">
-        <v>45245</v>
+        <v>45259</v>
       </c>
       <c r="G44" s="36">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H44" s="37"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
       <c r="N44" s="42"/>
       <c r="O44" s="42"/>
       <c r="P44" s="42"/>
@@ -5489,11 +5615,11 @@
       <c r="AT44" s="40"/>
       <c r="AU44" s="40"/>
       <c r="AV44" s="40"/>
-      <c r="AW44" s="38"/>
-      <c r="AX44" s="38"/>
-      <c r="AY44" s="38"/>
-      <c r="AZ44" s="38"/>
-      <c r="BA44" s="38"/>
+      <c r="AW44" s="68"/>
+      <c r="AX44" s="68"/>
+      <c r="AY44" s="68"/>
+      <c r="AZ44" s="68"/>
+      <c r="BA44" s="68"/>
       <c r="BB44" s="38"/>
       <c r="BC44" s="38"/>
       <c r="BD44" s="38"/>
@@ -5522,31 +5648,31 @@
     </row>
     <row r="45" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
-      <c r="B45" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="89" t="s">
-        <v>53</v>
+      <c r="B45" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="E45" s="35">
-        <v>45245</v>
+        <v>45210</v>
       </c>
       <c r="F45" s="35">
-        <v>45259</v>
+        <v>45217</v>
       </c>
       <c r="G45" s="36">
-        <f t="shared" si="4"/>
-        <v>14</v>
+        <f t="shared" ref="G45" si="6">DAYS360(E45,F45)</f>
+        <v>7</v>
       </c>
       <c r="H45" s="37"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
       <c r="N45" s="42"/>
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
@@ -5587,11 +5713,11 @@
       <c r="AY45" s="38"/>
       <c r="AZ45" s="38"/>
       <c r="BA45" s="38"/>
-      <c r="BB45" s="38"/>
-      <c r="BC45" s="38"/>
-      <c r="BD45" s="38"/>
-      <c r="BE45" s="38"/>
-      <c r="BF45" s="38"/>
+      <c r="BB45" s="68"/>
+      <c r="BC45" s="68"/>
+      <c r="BD45" s="68"/>
+      <c r="BE45" s="68"/>
+      <c r="BF45" s="68"/>
       <c r="BG45" s="41"/>
       <c r="BH45" s="41"/>
       <c r="BI45" s="41"/>
@@ -5616,29 +5742,29 @@
     <row r="46" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="33">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="89" t="s">
-        <v>53</v>
+        <v>3.1</v>
+      </c>
+      <c r="C46" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>114</v>
       </c>
       <c r="E46" s="35">
-        <v>45259</v>
+        <v>45189</v>
       </c>
       <c r="F46" s="35">
-        <v>45273</v>
-      </c>
-      <c r="G46" s="36">
-        <v>14</v>
+        <v>45196</v>
+      </c>
+      <c r="G46" s="69">
+        <v>7</v>
       </c>
       <c r="H46" s="37"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
       <c r="N46" s="42"/>
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
@@ -5674,11 +5800,11 @@
       <c r="AT46" s="40"/>
       <c r="AU46" s="40"/>
       <c r="AV46" s="40"/>
-      <c r="AW46" s="38"/>
-      <c r="AX46" s="38"/>
-      <c r="AY46" s="38"/>
-      <c r="AZ46" s="38"/>
-      <c r="BA46" s="38"/>
+      <c r="AW46" s="68"/>
+      <c r="AX46" s="68"/>
+      <c r="AY46" s="68"/>
+      <c r="AZ46" s="68"/>
+      <c r="BA46" s="68"/>
       <c r="BB46" s="38"/>
       <c r="BC46" s="38"/>
       <c r="BD46" s="38"/>
@@ -5705,98 +5831,108 @@
       <c r="BY46" s="38"/>
       <c r="BZ46" s="38"/>
     </row>
-    <row r="47" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="26">
-        <v>5</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="29"/>
-      <c r="AL47" s="29"/>
-      <c r="AM47" s="29"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
-      <c r="AP47" s="29"/>
-      <c r="AQ47" s="29"/>
-      <c r="AR47" s="29"/>
-      <c r="AS47" s="29"/>
-      <c r="AT47" s="29"/>
-      <c r="AU47" s="29"/>
-      <c r="AV47" s="29"/>
-      <c r="AW47" s="29"/>
-      <c r="AX47" s="29"/>
-      <c r="AY47" s="29"/>
-      <c r="AZ47" s="29"/>
-      <c r="BA47" s="29"/>
-      <c r="BB47" s="29"/>
-      <c r="BC47" s="29"/>
-      <c r="BD47" s="29"/>
-      <c r="BE47" s="29"/>
-      <c r="BF47" s="29"/>
-      <c r="BG47" s="29"/>
-      <c r="BH47" s="29"/>
-      <c r="BI47" s="29"/>
-      <c r="BJ47" s="29"/>
-      <c r="BK47" s="29"/>
-      <c r="BL47" s="29"/>
-      <c r="BM47" s="29"/>
-      <c r="BN47" s="29"/>
-      <c r="BO47" s="29"/>
-      <c r="BP47" s="29"/>
-      <c r="BQ47" s="29"/>
-      <c r="BR47" s="29"/>
-      <c r="BS47" s="29"/>
-      <c r="BT47" s="29"/>
-      <c r="BU47" s="29"/>
-      <c r="BV47" s="29"/>
-      <c r="BW47" s="29"/>
-      <c r="BX47" s="29"/>
-      <c r="BY47" s="29"/>
-      <c r="BZ47" s="29"/>
+    <row r="47" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="35">
+        <v>45203</v>
+      </c>
+      <c r="F47" s="35">
+        <v>45210</v>
+      </c>
+      <c r="G47" s="36">
+        <v>7</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="38"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+      <c r="X47" s="38"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="38"/>
+      <c r="AB47" s="38"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="38"/>
+      <c r="AI47" s="38"/>
+      <c r="AJ47" s="38"/>
+      <c r="AK47" s="38"/>
+      <c r="AL47" s="38"/>
+      <c r="AM47" s="38"/>
+      <c r="AN47" s="38"/>
+      <c r="AO47" s="38"/>
+      <c r="AP47" s="38"/>
+      <c r="AQ47" s="38"/>
+      <c r="AR47" s="40"/>
+      <c r="AS47" s="40"/>
+      <c r="AT47" s="40"/>
+      <c r="AU47" s="40"/>
+      <c r="AV47" s="40"/>
+      <c r="AW47" s="38"/>
+      <c r="AX47" s="38"/>
+      <c r="AY47" s="38"/>
+      <c r="AZ47" s="38"/>
+      <c r="BA47" s="38"/>
+      <c r="BB47" s="68"/>
+      <c r="BC47" s="68"/>
+      <c r="BD47" s="68"/>
+      <c r="BE47" s="68"/>
+      <c r="BF47" s="68"/>
+      <c r="BG47" s="41"/>
+      <c r="BH47" s="41"/>
+      <c r="BI47" s="41"/>
+      <c r="BJ47" s="41"/>
+      <c r="BK47" s="41"/>
+      <c r="BL47" s="38"/>
+      <c r="BM47" s="38"/>
+      <c r="BN47" s="38"/>
+      <c r="BO47" s="38"/>
+      <c r="BP47" s="38"/>
+      <c r="BQ47" s="38"/>
+      <c r="BR47" s="38"/>
+      <c r="BS47" s="38"/>
+      <c r="BT47" s="38"/>
+      <c r="BU47" s="38"/>
+      <c r="BV47" s="38"/>
+      <c r="BW47" s="38"/>
+      <c r="BX47" s="38"/>
+      <c r="BY47" s="38"/>
+      <c r="BZ47" s="38"/>
     </row>
-    <row r="48" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
       <c r="B48" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="85" t="s">
-        <v>51</v>
+        <v>3.2</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>113</v>
       </c>
       <c r="E48" s="35">
         <v>45203</v>
@@ -5805,15 +5941,14 @@
         <v>45210</v>
       </c>
       <c r="G48" s="36">
-        <f>DAYS360(E48,F48)</f>
         <v>7</v>
       </c>
       <c r="H48" s="37"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
       <c r="N48" s="42"/>
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
@@ -5859,11 +5994,11 @@
       <c r="BD48" s="38"/>
       <c r="BE48" s="38"/>
       <c r="BF48" s="38"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="BI48" s="41"/>
-      <c r="BJ48" s="41"/>
-      <c r="BK48" s="41"/>
+      <c r="BG48" s="68"/>
+      <c r="BH48" s="68"/>
+      <c r="BI48" s="68"/>
+      <c r="BJ48" s="68"/>
+      <c r="BK48" s="68"/>
       <c r="BL48" s="38"/>
       <c r="BM48" s="38"/>
       <c r="BN48" s="38"/>
@@ -5880,15 +6015,16 @@
       <c r="BY48" s="38"/>
       <c r="BZ48" s="38"/>
     </row>
-    <row r="49" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>51</v>
+    <row r="49" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E49" s="35">
         <v>45210</v>
@@ -5897,14 +6033,15 @@
         <v>45217</v>
       </c>
       <c r="G49" s="36">
+        <f t="shared" ref="G49" si="7">DAYS360(E49,F49)</f>
         <v>7</v>
       </c>
       <c r="H49" s="37"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="42"/>
       <c r="O49" s="42"/>
       <c r="P49" s="42"/>
@@ -5955,11 +6092,11 @@
       <c r="BI49" s="41"/>
       <c r="BJ49" s="41"/>
       <c r="BK49" s="41"/>
-      <c r="BL49" s="38"/>
-      <c r="BM49" s="38"/>
-      <c r="BN49" s="38"/>
-      <c r="BO49" s="38"/>
-      <c r="BP49" s="38"/>
+      <c r="BL49" s="68"/>
+      <c r="BM49" s="68"/>
+      <c r="BN49" s="68"/>
+      <c r="BO49" s="68"/>
+      <c r="BP49" s="68"/>
       <c r="BQ49" s="38"/>
       <c r="BR49" s="38"/>
       <c r="BS49" s="38"/>
@@ -5971,15 +6108,16 @@
       <c r="BY49" s="38"/>
       <c r="BZ49" s="38"/>
     </row>
-    <row r="50" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="85" t="s">
-        <v>51</v>
+    <row r="50" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="33">
+        <v>3.3</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>55</v>
       </c>
       <c r="E50" s="35">
         <v>45217</v>
@@ -5991,11 +6129,11 @@
         <v>14</v>
       </c>
       <c r="H50" s="37"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
       <c r="N50" s="42"/>
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
@@ -6041,11 +6179,11 @@
       <c r="BD50" s="38"/>
       <c r="BE50" s="38"/>
       <c r="BF50" s="38"/>
-      <c r="BG50" s="41"/>
-      <c r="BH50" s="41"/>
-      <c r="BI50" s="41"/>
-      <c r="BJ50" s="41"/>
-      <c r="BK50" s="41"/>
+      <c r="BG50" s="68"/>
+      <c r="BH50" s="68"/>
+      <c r="BI50" s="68"/>
+      <c r="BJ50" s="68"/>
+      <c r="BK50" s="68"/>
       <c r="BL50" s="38"/>
       <c r="BM50" s="38"/>
       <c r="BN50" s="38"/>
@@ -6062,15 +6200,16 @@
       <c r="BY50" s="38"/>
       <c r="BZ50" s="38"/>
     </row>
-    <row r="51" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>51</v>
+    <row r="51" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E51" s="35">
         <v>45231</v>
@@ -6079,14 +6218,15 @@
         <v>45245</v>
       </c>
       <c r="G51" s="36">
-        <f t="shared" ref="G50:G52" si="5">DAYS360(E51,F51)</f>
+        <f t="shared" ref="G51" si="8">DAYS360(E51,F51)</f>
         <v>14</v>
       </c>
-      <c r="I51" s="80"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
       <c r="N51" s="42"/>
       <c r="O51" s="42"/>
       <c r="P51" s="42"/>
@@ -6142,26 +6282,27 @@
       <c r="BN51" s="38"/>
       <c r="BO51" s="38"/>
       <c r="BP51" s="38"/>
-      <c r="BQ51" s="38"/>
-      <c r="BR51" s="38"/>
-      <c r="BS51" s="38"/>
-      <c r="BT51" s="38"/>
-      <c r="BU51" s="38"/>
+      <c r="BQ51" s="68"/>
+      <c r="BR51" s="68"/>
+      <c r="BS51" s="68"/>
+      <c r="BT51" s="68"/>
+      <c r="BU51" s="68"/>
       <c r="BV51" s="38"/>
       <c r="BW51" s="38"/>
       <c r="BX51" s="38"/>
       <c r="BY51" s="38"/>
       <c r="BZ51" s="38"/>
     </row>
-    <row r="52" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
       <c r="B52" s="33">
-        <v>4.3</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="85" t="s">
-        <v>51</v>
+        <v>3.6</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E52" s="35">
         <v>45245</v>
@@ -6170,15 +6311,14 @@
         <v>45259</v>
       </c>
       <c r="G52" s="36">
-        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="H52" s="37"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
       <c r="N52" s="42"/>
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
@@ -6219,11 +6359,11 @@
       <c r="AY52" s="38"/>
       <c r="AZ52" s="38"/>
       <c r="BA52" s="38"/>
-      <c r="BB52" s="38"/>
-      <c r="BC52" s="38"/>
-      <c r="BD52" s="38"/>
-      <c r="BE52" s="38"/>
-      <c r="BF52" s="38"/>
+      <c r="BB52" s="68"/>
+      <c r="BC52" s="68"/>
+      <c r="BD52" s="68"/>
+      <c r="BE52" s="68"/>
+      <c r="BF52" s="68"/>
       <c r="BG52" s="41"/>
       <c r="BH52" s="41"/>
       <c r="BI52" s="41"/>
@@ -6245,31 +6385,33 @@
       <c r="BY52" s="38"/>
       <c r="BZ52" s="38"/>
     </row>
-    <row r="53" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="85" t="s">
-        <v>51</v>
+    <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="33">
+        <v>3.7</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="E53" s="35">
-        <v>45259</v>
+        <v>45231</v>
       </c>
       <c r="F53" s="35">
-        <v>45273</v>
+        <v>45245</v>
       </c>
       <c r="G53" s="36">
+        <f t="shared" ref="G53:G54" si="9">DAYS360(E53,F53)</f>
         <v>14</v>
       </c>
       <c r="H53" s="37"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="82"/>
-      <c r="L53" s="82"/>
-      <c r="M53" s="82"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
       <c r="N53" s="42"/>
       <c r="O53" s="42"/>
       <c r="P53" s="42"/>
@@ -6295,11 +6437,11 @@
       <c r="AJ53" s="38"/>
       <c r="AK53" s="38"/>
       <c r="AL53" s="38"/>
-      <c r="AM53" s="38"/>
-      <c r="AN53" s="38"/>
-      <c r="AO53" s="38"/>
-      <c r="AP53" s="38"/>
-      <c r="AQ53" s="38"/>
+      <c r="AM53" s="68"/>
+      <c r="AN53" s="68"/>
+      <c r="AO53" s="68"/>
+      <c r="AP53" s="68"/>
+      <c r="AQ53" s="68"/>
       <c r="AR53" s="40"/>
       <c r="AS53" s="40"/>
       <c r="AT53" s="40"/>
@@ -6335,6 +6477,1737 @@
       <c r="BX53" s="38"/>
       <c r="BY53" s="38"/>
       <c r="BZ53" s="38"/>
+    </row>
+    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33">
+        <v>3.8</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="35">
+        <v>45245</v>
+      </c>
+      <c r="F54" s="35">
+        <v>45259</v>
+      </c>
+      <c r="G54" s="36">
+        <v>14</v>
+      </c>
+      <c r="H54" s="37"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="38"/>
+      <c r="V54" s="38"/>
+      <c r="W54" s="38"/>
+      <c r="X54" s="38"/>
+      <c r="Y54" s="38"/>
+      <c r="Z54" s="38"/>
+      <c r="AA54" s="38"/>
+      <c r="AB54" s="38"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AH54" s="38"/>
+      <c r="AI54" s="38"/>
+      <c r="AJ54" s="38"/>
+      <c r="AK54" s="38"/>
+      <c r="AL54" s="38"/>
+      <c r="AM54" s="38"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="38"/>
+      <c r="AP54" s="38"/>
+      <c r="AQ54" s="38"/>
+      <c r="AR54" s="40"/>
+      <c r="AS54" s="40"/>
+      <c r="AT54" s="40"/>
+      <c r="AU54" s="40"/>
+      <c r="AV54" s="40"/>
+      <c r="AW54" s="38"/>
+      <c r="AX54" s="38"/>
+      <c r="AY54" s="38"/>
+      <c r="AZ54" s="38"/>
+      <c r="BA54" s="38"/>
+      <c r="BB54" s="38"/>
+      <c r="BC54" s="38"/>
+      <c r="BD54" s="38"/>
+      <c r="BE54" s="38"/>
+      <c r="BF54" s="38"/>
+      <c r="BG54" s="41"/>
+      <c r="BH54" s="41"/>
+      <c r="BI54" s="41"/>
+      <c r="BJ54" s="41"/>
+      <c r="BK54" s="41"/>
+      <c r="BL54" s="68"/>
+      <c r="BM54" s="68"/>
+      <c r="BN54" s="68"/>
+      <c r="BO54" s="68"/>
+      <c r="BP54" s="68"/>
+      <c r="BQ54" s="38"/>
+      <c r="BR54" s="38"/>
+      <c r="BS54" s="38"/>
+      <c r="BT54" s="38"/>
+      <c r="BU54" s="38"/>
+      <c r="BV54" s="38"/>
+      <c r="BW54" s="38"/>
+      <c r="BX54" s="38"/>
+      <c r="BY54" s="38"/>
+      <c r="BZ54" s="38"/>
+    </row>
+    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="33">
+        <v>3.9</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F55" s="35">
+        <v>45217</v>
+      </c>
+      <c r="G55" s="36">
+        <f t="shared" ref="G55" si="10">DAYS360(E55,F55)</f>
+        <v>7</v>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="58"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="38"/>
+      <c r="T55" s="38"/>
+      <c r="U55" s="38"/>
+      <c r="V55" s="38"/>
+      <c r="W55" s="38"/>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
+      <c r="AB55" s="38"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="38"/>
+      <c r="AI55" s="38"/>
+      <c r="AJ55" s="38"/>
+      <c r="AK55" s="38"/>
+      <c r="AL55" s="38"/>
+      <c r="AM55" s="38"/>
+      <c r="AN55" s="38"/>
+      <c r="AO55" s="38"/>
+      <c r="AP55" s="38"/>
+      <c r="AQ55" s="38"/>
+      <c r="AR55" s="40"/>
+      <c r="AS55" s="40"/>
+      <c r="AT55" s="40"/>
+      <c r="AU55" s="40"/>
+      <c r="AV55" s="40"/>
+      <c r="AW55" s="38"/>
+      <c r="AX55" s="38"/>
+      <c r="AY55" s="38"/>
+      <c r="AZ55" s="38"/>
+      <c r="BA55" s="38"/>
+      <c r="BB55" s="38"/>
+      <c r="BC55" s="38"/>
+      <c r="BD55" s="38"/>
+      <c r="BE55" s="38"/>
+      <c r="BF55" s="38"/>
+      <c r="BG55" s="41"/>
+      <c r="BH55" s="41"/>
+      <c r="BI55" s="41"/>
+      <c r="BJ55" s="41"/>
+      <c r="BK55" s="41"/>
+      <c r="BL55" s="38"/>
+      <c r="BM55" s="38"/>
+      <c r="BN55" s="38"/>
+      <c r="BO55" s="38"/>
+      <c r="BP55" s="38"/>
+      <c r="BQ55" s="38"/>
+      <c r="BR55" s="38"/>
+      <c r="BS55" s="38"/>
+      <c r="BT55" s="38"/>
+      <c r="BU55" s="38"/>
+      <c r="BV55" s="68"/>
+      <c r="BW55" s="68"/>
+      <c r="BX55" s="68"/>
+      <c r="BY55" s="68"/>
+      <c r="BZ55" s="68"/>
+    </row>
+    <row r="56" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21"/>
+      <c r="B56" s="26">
+        <v>4</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="29"/>
+      <c r="AJ56" s="29"/>
+      <c r="AK56" s="29"/>
+      <c r="AL56" s="29"/>
+      <c r="AM56" s="29"/>
+      <c r="AN56" s="29"/>
+      <c r="AO56" s="29"/>
+      <c r="AP56" s="29"/>
+      <c r="AQ56" s="29"/>
+      <c r="AR56" s="29"/>
+      <c r="AS56" s="29"/>
+      <c r="AT56" s="29"/>
+      <c r="AU56" s="29"/>
+      <c r="AV56" s="29"/>
+      <c r="AW56" s="29"/>
+      <c r="AX56" s="29"/>
+      <c r="AY56" s="29"/>
+      <c r="AZ56" s="29"/>
+      <c r="BA56" s="29"/>
+      <c r="BB56" s="29"/>
+      <c r="BC56" s="29"/>
+      <c r="BD56" s="29"/>
+      <c r="BE56" s="29"/>
+      <c r="BF56" s="29"/>
+      <c r="BG56" s="29"/>
+      <c r="BH56" s="29"/>
+      <c r="BI56" s="29"/>
+      <c r="BJ56" s="29"/>
+      <c r="BK56" s="29"/>
+      <c r="BL56" s="29"/>
+      <c r="BM56" s="29"/>
+      <c r="BN56" s="29"/>
+      <c r="BO56" s="29"/>
+      <c r="BP56" s="29"/>
+      <c r="BQ56" s="29"/>
+      <c r="BR56" s="29"/>
+      <c r="BS56" s="29"/>
+      <c r="BT56" s="29"/>
+      <c r="BU56" s="29"/>
+      <c r="BV56" s="29"/>
+      <c r="BW56" s="29"/>
+      <c r="BX56" s="29"/>
+      <c r="BY56" s="29"/>
+      <c r="BZ56" s="29"/>
+    </row>
+    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="35">
+        <v>45196</v>
+      </c>
+      <c r="F57" s="35">
+        <v>45203</v>
+      </c>
+      <c r="G57" s="36">
+        <f>DAYS360(E57,F57)</f>
+        <v>7</v>
+      </c>
+      <c r="H57" s="37"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="38"/>
+      <c r="T57" s="38"/>
+      <c r="U57" s="38"/>
+      <c r="V57" s="38"/>
+      <c r="W57" s="38"/>
+      <c r="X57" s="38"/>
+      <c r="Y57" s="38"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="38"/>
+      <c r="AB57" s="38"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
+      <c r="AE57" s="68"/>
+      <c r="AF57" s="68"/>
+      <c r="AG57" s="68"/>
+      <c r="AH57" s="38"/>
+      <c r="AI57" s="38"/>
+      <c r="AJ57" s="38"/>
+      <c r="AK57" s="38"/>
+      <c r="AL57" s="38"/>
+      <c r="AM57" s="38"/>
+      <c r="AN57" s="38"/>
+      <c r="AO57" s="38"/>
+      <c r="AP57" s="38"/>
+      <c r="AQ57" s="38"/>
+      <c r="AR57" s="40"/>
+      <c r="AS57" s="40"/>
+      <c r="AT57" s="40"/>
+      <c r="AU57" s="40"/>
+      <c r="AV57" s="40"/>
+      <c r="AW57" s="38"/>
+      <c r="AX57" s="38"/>
+      <c r="AY57" s="38"/>
+      <c r="AZ57" s="38"/>
+      <c r="BA57" s="38"/>
+      <c r="BB57" s="38"/>
+      <c r="BC57" s="38"/>
+      <c r="BD57" s="38"/>
+      <c r="BE57" s="38"/>
+      <c r="BF57" s="38"/>
+      <c r="BG57" s="41"/>
+      <c r="BH57" s="41"/>
+      <c r="BI57" s="41"/>
+      <c r="BJ57" s="41"/>
+      <c r="BK57" s="41"/>
+      <c r="BL57" s="38"/>
+      <c r="BM57" s="38"/>
+      <c r="BN57" s="38"/>
+      <c r="BO57" s="38"/>
+      <c r="BP57" s="38"/>
+      <c r="BQ57" s="38"/>
+      <c r="BR57" s="38"/>
+      <c r="BS57" s="38"/>
+      <c r="BT57" s="38"/>
+      <c r="BU57" s="38"/>
+      <c r="BV57" s="38"/>
+      <c r="BW57" s="38"/>
+      <c r="BX57" s="38"/>
+      <c r="BY57" s="38"/>
+      <c r="BZ57" s="38"/>
+    </row>
+    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33">
+        <v>4.2</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="35">
+        <v>45203</v>
+      </c>
+      <c r="F58" s="35">
+        <v>45210</v>
+      </c>
+      <c r="G58" s="36">
+        <v>7</v>
+      </c>
+      <c r="H58" s="37"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="38"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="38"/>
+      <c r="V58" s="38"/>
+      <c r="W58" s="38"/>
+      <c r="X58" s="38"/>
+      <c r="Y58" s="38"/>
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="38"/>
+      <c r="AB58" s="38"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="68"/>
+      <c r="AI58" s="68"/>
+      <c r="AJ58" s="68"/>
+      <c r="AK58" s="68"/>
+      <c r="AL58" s="68"/>
+      <c r="AM58" s="38"/>
+      <c r="AN58" s="38"/>
+      <c r="AO58" s="38"/>
+      <c r="AP58" s="38"/>
+      <c r="AQ58" s="38"/>
+      <c r="AR58" s="40"/>
+      <c r="AS58" s="40"/>
+      <c r="AT58" s="40"/>
+      <c r="AU58" s="40"/>
+      <c r="AV58" s="40"/>
+      <c r="AW58" s="38"/>
+      <c r="AX58" s="38"/>
+      <c r="AY58" s="38"/>
+      <c r="AZ58" s="38"/>
+      <c r="BA58" s="38"/>
+      <c r="BB58" s="38"/>
+      <c r="BC58" s="38"/>
+      <c r="BD58" s="38"/>
+      <c r="BE58" s="38"/>
+      <c r="BF58" s="38"/>
+      <c r="BG58" s="41"/>
+      <c r="BH58" s="41"/>
+      <c r="BI58" s="41"/>
+      <c r="BJ58" s="41"/>
+      <c r="BK58" s="41"/>
+      <c r="BL58" s="38"/>
+      <c r="BM58" s="38"/>
+      <c r="BN58" s="38"/>
+      <c r="BO58" s="38"/>
+      <c r="BP58" s="38"/>
+      <c r="BQ58" s="38"/>
+      <c r="BR58" s="38"/>
+      <c r="BS58" s="38"/>
+      <c r="BT58" s="38"/>
+      <c r="BU58" s="38"/>
+      <c r="BV58" s="38"/>
+      <c r="BW58" s="38"/>
+      <c r="BX58" s="38"/>
+      <c r="BY58" s="38"/>
+      <c r="BZ58" s="38"/>
+    </row>
+    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F59" s="35">
+        <v>45217</v>
+      </c>
+      <c r="G59" s="36">
+        <f t="shared" ref="G59:G62" si="11">DAYS360(E59,F59)</f>
+        <v>7</v>
+      </c>
+      <c r="H59" s="37"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+      <c r="U59" s="38"/>
+      <c r="V59" s="38"/>
+      <c r="W59" s="38"/>
+      <c r="X59" s="38"/>
+      <c r="Y59" s="38"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="39"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AH59" s="38"/>
+      <c r="AI59" s="38"/>
+      <c r="AJ59" s="38"/>
+      <c r="AK59" s="38"/>
+      <c r="AL59" s="38"/>
+      <c r="AM59" s="38"/>
+      <c r="AN59" s="38"/>
+      <c r="AO59" s="38"/>
+      <c r="AP59" s="38"/>
+      <c r="AQ59" s="38"/>
+      <c r="AR59" s="68"/>
+      <c r="AS59" s="68"/>
+      <c r="AT59" s="68"/>
+      <c r="AU59" s="68"/>
+      <c r="AV59" s="68"/>
+      <c r="AW59" s="38"/>
+      <c r="AX59" s="38"/>
+      <c r="AY59" s="38"/>
+      <c r="AZ59" s="38"/>
+      <c r="BA59" s="38"/>
+      <c r="BB59" s="38"/>
+      <c r="BC59" s="38"/>
+      <c r="BD59" s="38"/>
+      <c r="BE59" s="38"/>
+      <c r="BF59" s="38"/>
+      <c r="BG59" s="41"/>
+      <c r="BH59" s="41"/>
+      <c r="BI59" s="41"/>
+      <c r="BJ59" s="41"/>
+      <c r="BK59" s="41"/>
+      <c r="BL59" s="38"/>
+      <c r="BM59" s="38"/>
+      <c r="BN59" s="38"/>
+      <c r="BO59" s="38"/>
+      <c r="BP59" s="38"/>
+      <c r="BQ59" s="38"/>
+      <c r="BR59" s="38"/>
+      <c r="BS59" s="38"/>
+      <c r="BT59" s="38"/>
+      <c r="BU59" s="38"/>
+      <c r="BV59" s="38"/>
+      <c r="BW59" s="38"/>
+      <c r="BX59" s="38"/>
+      <c r="BY59" s="38"/>
+      <c r="BZ59" s="38"/>
+    </row>
+    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="35">
+        <v>45217</v>
+      </c>
+      <c r="F60" s="35">
+        <v>45231</v>
+      </c>
+      <c r="G60" s="36">
+        <v>14</v>
+      </c>
+      <c r="I60" s="57"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="38"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="39"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="38"/>
+      <c r="AI60" s="38"/>
+      <c r="AJ60" s="38"/>
+      <c r="AK60" s="38"/>
+      <c r="AL60" s="38"/>
+      <c r="AM60" s="68"/>
+      <c r="AN60" s="68"/>
+      <c r="AO60" s="68"/>
+      <c r="AP60" s="68"/>
+      <c r="AQ60" s="68"/>
+      <c r="AR60" s="40"/>
+      <c r="AS60" s="40"/>
+      <c r="AT60" s="40"/>
+      <c r="AU60" s="40"/>
+      <c r="AV60" s="40"/>
+      <c r="AW60" s="38"/>
+      <c r="AX60" s="38"/>
+      <c r="AY60" s="38"/>
+      <c r="AZ60" s="38"/>
+      <c r="BA60" s="38"/>
+      <c r="BB60" s="38"/>
+      <c r="BC60" s="38"/>
+      <c r="BD60" s="38"/>
+      <c r="BE60" s="38"/>
+      <c r="BF60" s="38"/>
+      <c r="BG60" s="41"/>
+      <c r="BH60" s="41"/>
+      <c r="BI60" s="41"/>
+      <c r="BJ60" s="41"/>
+      <c r="BK60" s="41"/>
+      <c r="BL60" s="38"/>
+      <c r="BM60" s="38"/>
+      <c r="BN60" s="38"/>
+      <c r="BO60" s="38"/>
+      <c r="BP60" s="38"/>
+      <c r="BQ60" s="38"/>
+      <c r="BR60" s="38"/>
+      <c r="BS60" s="38"/>
+      <c r="BT60" s="38"/>
+      <c r="BU60" s="38"/>
+      <c r="BV60" s="38"/>
+      <c r="BW60" s="38"/>
+      <c r="BX60" s="38"/>
+      <c r="BY60" s="38"/>
+      <c r="BZ60" s="38"/>
+    </row>
+    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33">
+        <v>4.3</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="35">
+        <v>45231</v>
+      </c>
+      <c r="F61" s="35">
+        <v>45245</v>
+      </c>
+      <c r="G61" s="36">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H61" s="37"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="U61" s="38"/>
+      <c r="V61" s="38"/>
+      <c r="W61" s="38"/>
+      <c r="X61" s="38"/>
+      <c r="Y61" s="38"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="39"/>
+      <c r="AD61" s="39"/>
+      <c r="AE61" s="39"/>
+      <c r="AF61" s="39"/>
+      <c r="AG61" s="39"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="38"/>
+      <c r="AJ61" s="38"/>
+      <c r="AK61" s="38"/>
+      <c r="AL61" s="38"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="38"/>
+      <c r="AO61" s="38"/>
+      <c r="AP61" s="38"/>
+      <c r="AQ61" s="38"/>
+      <c r="AR61" s="40"/>
+      <c r="AS61" s="40"/>
+      <c r="AT61" s="40"/>
+      <c r="AU61" s="40"/>
+      <c r="AV61" s="40"/>
+      <c r="AW61" s="38"/>
+      <c r="AX61" s="38"/>
+      <c r="AY61" s="38"/>
+      <c r="AZ61" s="38"/>
+      <c r="BA61" s="38"/>
+      <c r="BB61" s="38"/>
+      <c r="BC61" s="38"/>
+      <c r="BD61" s="38"/>
+      <c r="BE61" s="38"/>
+      <c r="BF61" s="38"/>
+      <c r="BG61" s="68"/>
+      <c r="BH61" s="68"/>
+      <c r="BI61" s="68"/>
+      <c r="BJ61" s="68"/>
+      <c r="BK61" s="68"/>
+      <c r="BL61" s="38"/>
+      <c r="BM61" s="38"/>
+      <c r="BN61" s="38"/>
+      <c r="BO61" s="38"/>
+      <c r="BP61" s="38"/>
+      <c r="BQ61" s="38"/>
+      <c r="BR61" s="38"/>
+      <c r="BS61" s="38"/>
+      <c r="BT61" s="38"/>
+      <c r="BU61" s="38"/>
+      <c r="BV61" s="38"/>
+      <c r="BW61" s="38"/>
+      <c r="BX61" s="38"/>
+      <c r="BY61" s="38"/>
+      <c r="BZ61" s="38"/>
+    </row>
+    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="35">
+        <v>45245</v>
+      </c>
+      <c r="F62" s="35">
+        <v>45259</v>
+      </c>
+      <c r="G62" s="36">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H62" s="37"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="59"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="59"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="38"/>
+      <c r="T62" s="38"/>
+      <c r="U62" s="38"/>
+      <c r="V62" s="38"/>
+      <c r="W62" s="38"/>
+      <c r="X62" s="38"/>
+      <c r="Y62" s="38"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="39"/>
+      <c r="AD62" s="39"/>
+      <c r="AE62" s="39"/>
+      <c r="AF62" s="39"/>
+      <c r="AG62" s="39"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="38"/>
+      <c r="AJ62" s="38"/>
+      <c r="AK62" s="38"/>
+      <c r="AL62" s="38"/>
+      <c r="AM62" s="38"/>
+      <c r="AN62" s="38"/>
+      <c r="AO62" s="38"/>
+      <c r="AP62" s="38"/>
+      <c r="AQ62" s="38"/>
+      <c r="AR62" s="40"/>
+      <c r="AS62" s="40"/>
+      <c r="AT62" s="40"/>
+      <c r="AU62" s="40"/>
+      <c r="AV62" s="40"/>
+      <c r="AW62" s="38"/>
+      <c r="AX62" s="38"/>
+      <c r="AY62" s="38"/>
+      <c r="AZ62" s="38"/>
+      <c r="BA62" s="38"/>
+      <c r="BB62" s="38"/>
+      <c r="BC62" s="38"/>
+      <c r="BD62" s="38"/>
+      <c r="BE62" s="38"/>
+      <c r="BF62" s="38"/>
+      <c r="BG62" s="41"/>
+      <c r="BH62" s="41"/>
+      <c r="BI62" s="41"/>
+      <c r="BJ62" s="41"/>
+      <c r="BK62" s="41"/>
+      <c r="BL62" s="68"/>
+      <c r="BM62" s="68"/>
+      <c r="BN62" s="68"/>
+      <c r="BO62" s="68"/>
+      <c r="BP62" s="68"/>
+      <c r="BQ62" s="38"/>
+      <c r="BR62" s="38"/>
+      <c r="BS62" s="38"/>
+      <c r="BT62" s="38"/>
+      <c r="BU62" s="38"/>
+      <c r="BV62" s="38"/>
+      <c r="BW62" s="38"/>
+      <c r="BX62" s="38"/>
+      <c r="BY62" s="38"/>
+      <c r="BZ62" s="38"/>
+    </row>
+    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="35">
+        <v>45259</v>
+      </c>
+      <c r="F63" s="35">
+        <v>45273</v>
+      </c>
+      <c r="G63" s="36">
+        <v>14</v>
+      </c>
+      <c r="H63" s="37"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="38"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="38"/>
+      <c r="V63" s="38"/>
+      <c r="W63" s="38"/>
+      <c r="X63" s="38"/>
+      <c r="Y63" s="38"/>
+      <c r="Z63" s="38"/>
+      <c r="AA63" s="38"/>
+      <c r="AB63" s="38"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="39"/>
+      <c r="AH63" s="38"/>
+      <c r="AI63" s="38"/>
+      <c r="AJ63" s="38"/>
+      <c r="AK63" s="38"/>
+      <c r="AL63" s="38"/>
+      <c r="AM63" s="38"/>
+      <c r="AN63" s="38"/>
+      <c r="AO63" s="38"/>
+      <c r="AP63" s="38"/>
+      <c r="AQ63" s="38"/>
+      <c r="AR63" s="40"/>
+      <c r="AS63" s="40"/>
+      <c r="AT63" s="40"/>
+      <c r="AU63" s="40"/>
+      <c r="AV63" s="40"/>
+      <c r="AW63" s="38"/>
+      <c r="AX63" s="38"/>
+      <c r="AY63" s="38"/>
+      <c r="AZ63" s="38"/>
+      <c r="BA63" s="38"/>
+      <c r="BB63" s="38"/>
+      <c r="BC63" s="38"/>
+      <c r="BD63" s="38"/>
+      <c r="BE63" s="38"/>
+      <c r="BF63" s="38"/>
+      <c r="BG63" s="41"/>
+      <c r="BH63" s="41"/>
+      <c r="BI63" s="41"/>
+      <c r="BJ63" s="41"/>
+      <c r="BK63" s="41"/>
+      <c r="BL63" s="38"/>
+      <c r="BM63" s="38"/>
+      <c r="BN63" s="38"/>
+      <c r="BO63" s="38"/>
+      <c r="BP63" s="38"/>
+      <c r="BQ63" s="38"/>
+      <c r="BR63" s="38"/>
+      <c r="BS63" s="38"/>
+      <c r="BT63" s="38"/>
+      <c r="BU63" s="38"/>
+      <c r="BV63" s="68"/>
+      <c r="BW63" s="68"/>
+      <c r="BX63" s="68"/>
+      <c r="BY63" s="68"/>
+      <c r="BZ63" s="68"/>
+    </row>
+    <row r="64" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="26">
+        <v>5</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+      <c r="AF64" s="29"/>
+      <c r="AG64" s="29"/>
+      <c r="AH64" s="29"/>
+      <c r="AI64" s="29"/>
+      <c r="AJ64" s="29"/>
+      <c r="AK64" s="29"/>
+      <c r="AL64" s="29"/>
+      <c r="AM64" s="29"/>
+      <c r="AN64" s="29"/>
+      <c r="AO64" s="29"/>
+      <c r="AP64" s="29"/>
+      <c r="AQ64" s="29"/>
+      <c r="AR64" s="29"/>
+      <c r="AS64" s="29"/>
+      <c r="AT64" s="29"/>
+      <c r="AU64" s="29"/>
+      <c r="AV64" s="29"/>
+      <c r="AW64" s="29"/>
+      <c r="AX64" s="29"/>
+      <c r="AY64" s="29"/>
+      <c r="AZ64" s="29"/>
+      <c r="BA64" s="29"/>
+      <c r="BB64" s="29"/>
+      <c r="BC64" s="29"/>
+      <c r="BD64" s="29"/>
+      <c r="BE64" s="29"/>
+      <c r="BF64" s="29"/>
+      <c r="BG64" s="29"/>
+      <c r="BH64" s="29"/>
+      <c r="BI64" s="29"/>
+      <c r="BJ64" s="29"/>
+      <c r="BK64" s="29"/>
+      <c r="BL64" s="29"/>
+      <c r="BM64" s="29"/>
+      <c r="BN64" s="29"/>
+      <c r="BO64" s="29"/>
+      <c r="BP64" s="29"/>
+      <c r="BQ64" s="29"/>
+      <c r="BR64" s="29"/>
+      <c r="BS64" s="29"/>
+      <c r="BT64" s="29"/>
+      <c r="BU64" s="29"/>
+      <c r="BV64" s="29"/>
+      <c r="BW64" s="29"/>
+      <c r="BX64" s="29"/>
+      <c r="BY64" s="29"/>
+      <c r="BZ64" s="29"/>
+    </row>
+    <row r="65" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="33">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="35">
+        <v>45203</v>
+      </c>
+      <c r="F65" s="35">
+        <v>45210</v>
+      </c>
+      <c r="G65" s="36">
+        <f>DAYS360(E65,F65)</f>
+        <v>7</v>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="39"/>
+      <c r="AF65" s="39"/>
+      <c r="AG65" s="39"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="38"/>
+      <c r="AL65" s="38"/>
+      <c r="AM65" s="38"/>
+      <c r="AN65" s="38"/>
+      <c r="AO65" s="38"/>
+      <c r="AP65" s="38"/>
+      <c r="AQ65" s="38"/>
+      <c r="AR65" s="40"/>
+      <c r="AS65" s="40"/>
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="40"/>
+      <c r="AV65" s="40"/>
+      <c r="AW65" s="38"/>
+      <c r="AX65" s="38"/>
+      <c r="AY65" s="38"/>
+      <c r="AZ65" s="38"/>
+      <c r="BA65" s="38"/>
+      <c r="BB65" s="38"/>
+      <c r="BC65" s="38"/>
+      <c r="BD65" s="38"/>
+      <c r="BE65" s="38"/>
+      <c r="BF65" s="38"/>
+      <c r="BG65" s="41"/>
+      <c r="BH65" s="41"/>
+      <c r="BI65" s="41"/>
+      <c r="BJ65" s="41"/>
+      <c r="BK65" s="41"/>
+      <c r="BL65" s="38"/>
+      <c r="BM65" s="38"/>
+      <c r="BN65" s="38"/>
+      <c r="BO65" s="38"/>
+      <c r="BP65" s="38"/>
+      <c r="BQ65" s="38"/>
+      <c r="BR65" s="38"/>
+      <c r="BS65" s="38"/>
+      <c r="BT65" s="38"/>
+      <c r="BU65" s="38"/>
+      <c r="BV65" s="68"/>
+      <c r="BW65" s="68"/>
+      <c r="BX65" s="68"/>
+      <c r="BY65" s="68"/>
+      <c r="BZ65" s="68"/>
+    </row>
+    <row r="66" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="33">
+        <v>5.2</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="35">
+        <v>45210</v>
+      </c>
+      <c r="F66" s="35">
+        <v>45217</v>
+      </c>
+      <c r="G66" s="36">
+        <v>7</v>
+      </c>
+      <c r="H66" s="37"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="38"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="38"/>
+      <c r="AA66" s="38"/>
+      <c r="AB66" s="38"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="39"/>
+      <c r="AF66" s="39"/>
+      <c r="AG66" s="39"/>
+      <c r="AH66" s="38"/>
+      <c r="AI66" s="38"/>
+      <c r="AJ66" s="38"/>
+      <c r="AK66" s="38"/>
+      <c r="AL66" s="38"/>
+      <c r="AM66" s="38"/>
+      <c r="AN66" s="38"/>
+      <c r="AO66" s="38"/>
+      <c r="AP66" s="38"/>
+      <c r="AQ66" s="38"/>
+      <c r="AR66" s="40"/>
+      <c r="AS66" s="40"/>
+      <c r="AT66" s="40"/>
+      <c r="AU66" s="40"/>
+      <c r="AV66" s="40"/>
+      <c r="AW66" s="38"/>
+      <c r="AX66" s="38"/>
+      <c r="AY66" s="38"/>
+      <c r="AZ66" s="38"/>
+      <c r="BA66" s="38"/>
+      <c r="BB66" s="38"/>
+      <c r="BC66" s="38"/>
+      <c r="BD66" s="38"/>
+      <c r="BE66" s="38"/>
+      <c r="BF66" s="38"/>
+      <c r="BG66" s="41"/>
+      <c r="BH66" s="41"/>
+      <c r="BI66" s="41"/>
+      <c r="BJ66" s="41"/>
+      <c r="BK66" s="41"/>
+      <c r="BL66" s="38"/>
+      <c r="BM66" s="38"/>
+      <c r="BN66" s="38"/>
+      <c r="BO66" s="38"/>
+      <c r="BP66" s="38"/>
+      <c r="BQ66" s="38"/>
+      <c r="BR66" s="38"/>
+      <c r="BS66" s="38"/>
+      <c r="BT66" s="38"/>
+      <c r="BU66" s="38"/>
+      <c r="BV66" s="68"/>
+      <c r="BW66" s="68"/>
+      <c r="BX66" s="68"/>
+      <c r="BY66" s="68"/>
+      <c r="BZ66" s="68"/>
+    </row>
+    <row r="67" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="35">
+        <v>45217</v>
+      </c>
+      <c r="F67" s="35">
+        <v>45231</v>
+      </c>
+      <c r="G67" s="36">
+        <v>14</v>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="38"/>
+      <c r="AA67" s="38"/>
+      <c r="AB67" s="38"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39"/>
+      <c r="AG67" s="39"/>
+      <c r="AH67" s="38"/>
+      <c r="AI67" s="38"/>
+      <c r="AJ67" s="38"/>
+      <c r="AK67" s="38"/>
+      <c r="AL67" s="38"/>
+      <c r="AM67" s="94"/>
+      <c r="AN67" s="94"/>
+      <c r="AO67" s="94"/>
+      <c r="AP67" s="94"/>
+      <c r="AQ67" s="94"/>
+      <c r="AR67" s="40"/>
+      <c r="AS67" s="40"/>
+      <c r="AT67" s="40"/>
+      <c r="AU67" s="40"/>
+      <c r="AV67" s="40"/>
+      <c r="AW67" s="38"/>
+      <c r="AX67" s="38"/>
+      <c r="AY67" s="38"/>
+      <c r="AZ67" s="38"/>
+      <c r="BA67" s="38"/>
+      <c r="BB67" s="38"/>
+      <c r="BC67" s="38"/>
+      <c r="BD67" s="38"/>
+      <c r="BE67" s="38"/>
+      <c r="BF67" s="38"/>
+      <c r="BG67" s="41"/>
+      <c r="BH67" s="41"/>
+      <c r="BI67" s="41"/>
+      <c r="BJ67" s="41"/>
+      <c r="BK67" s="41"/>
+      <c r="BL67" s="38"/>
+      <c r="BM67" s="38"/>
+      <c r="BN67" s="38"/>
+      <c r="BO67" s="38"/>
+      <c r="BP67" s="38"/>
+      <c r="BQ67" s="38"/>
+      <c r="BR67" s="38"/>
+      <c r="BS67" s="38"/>
+      <c r="BT67" s="38"/>
+      <c r="BU67" s="38"/>
+      <c r="BV67" s="68"/>
+      <c r="BW67" s="68"/>
+      <c r="BX67" s="68"/>
+      <c r="BY67" s="68"/>
+      <c r="BZ67" s="68"/>
+    </row>
+    <row r="68" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="35">
+        <v>45231</v>
+      </c>
+      <c r="F68" s="35">
+        <v>45245</v>
+      </c>
+      <c r="G68" s="36">
+        <f t="shared" ref="G68:G69" si="12">DAYS360(E68,F68)</f>
+        <v>14</v>
+      </c>
+      <c r="I68" s="57"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="38"/>
+      <c r="AB68" s="38"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="38"/>
+      <c r="AI68" s="38"/>
+      <c r="AJ68" s="38"/>
+      <c r="AK68" s="38"/>
+      <c r="AL68" s="38"/>
+      <c r="AM68" s="38"/>
+      <c r="AN68" s="38"/>
+      <c r="AO68" s="38"/>
+      <c r="AP68" s="38"/>
+      <c r="AQ68" s="38"/>
+      <c r="AR68" s="40"/>
+      <c r="AS68" s="40"/>
+      <c r="AT68" s="40"/>
+      <c r="AU68" s="40"/>
+      <c r="AV68" s="40"/>
+      <c r="AW68" s="38"/>
+      <c r="AX68" s="38"/>
+      <c r="AY68" s="38"/>
+      <c r="AZ68" s="38"/>
+      <c r="BA68" s="38"/>
+      <c r="BB68" s="38"/>
+      <c r="BC68" s="38"/>
+      <c r="BD68" s="38"/>
+      <c r="BE68" s="38"/>
+      <c r="BF68" s="38"/>
+      <c r="BG68" s="41"/>
+      <c r="BH68" s="41"/>
+      <c r="BI68" s="41"/>
+      <c r="BJ68" s="41"/>
+      <c r="BK68" s="41"/>
+      <c r="BL68" s="38"/>
+      <c r="BM68" s="38"/>
+      <c r="BN68" s="38"/>
+      <c r="BO68" s="38"/>
+      <c r="BP68" s="38"/>
+      <c r="BQ68" s="38"/>
+      <c r="BR68" s="38"/>
+      <c r="BS68" s="38"/>
+      <c r="BT68" s="38"/>
+      <c r="BU68" s="38"/>
+      <c r="BV68" s="68"/>
+      <c r="BW68" s="68"/>
+      <c r="BX68" s="68"/>
+      <c r="BY68" s="68"/>
+      <c r="BZ68" s="68"/>
+    </row>
+    <row r="69" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="33">
+        <v>5.3</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="35">
+        <v>45245</v>
+      </c>
+      <c r="F69" s="35">
+        <v>45259</v>
+      </c>
+      <c r="G69" s="36">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="H69" s="37"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="38"/>
+      <c r="AB69" s="38"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+      <c r="AF69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AH69" s="38"/>
+      <c r="AI69" s="38"/>
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="38"/>
+      <c r="AL69" s="38"/>
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="38"/>
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="40"/>
+      <c r="AS69" s="40"/>
+      <c r="AT69" s="40"/>
+      <c r="AU69" s="40"/>
+      <c r="AV69" s="40"/>
+      <c r="AW69" s="38"/>
+      <c r="AX69" s="38"/>
+      <c r="AY69" s="38"/>
+      <c r="AZ69" s="38"/>
+      <c r="BA69" s="38"/>
+      <c r="BB69" s="38"/>
+      <c r="BC69" s="38"/>
+      <c r="BD69" s="38"/>
+      <c r="BE69" s="38"/>
+      <c r="BF69" s="38"/>
+      <c r="BG69" s="41"/>
+      <c r="BH69" s="41"/>
+      <c r="BI69" s="41"/>
+      <c r="BJ69" s="41"/>
+      <c r="BK69" s="41"/>
+      <c r="BL69" s="38"/>
+      <c r="BM69" s="38"/>
+      <c r="BN69" s="38"/>
+      <c r="BO69" s="38"/>
+      <c r="BP69" s="38"/>
+      <c r="BQ69" s="38"/>
+      <c r="BR69" s="38"/>
+      <c r="BS69" s="38"/>
+      <c r="BT69" s="38"/>
+      <c r="BU69" s="38"/>
+      <c r="BV69" s="68"/>
+      <c r="BW69" s="68"/>
+      <c r="BX69" s="68"/>
+      <c r="BY69" s="68"/>
+      <c r="BZ69" s="68"/>
+    </row>
+    <row r="70" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="35">
+        <v>45217</v>
+      </c>
+      <c r="F70" s="35">
+        <v>45231</v>
+      </c>
+      <c r="G70" s="36">
+        <v>14</v>
+      </c>
+      <c r="H70" s="37"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="59"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="38"/>
+      <c r="AB70" s="38"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39"/>
+      <c r="AE70" s="39"/>
+      <c r="AF70" s="39"/>
+      <c r="AG70" s="39"/>
+      <c r="AH70" s="38"/>
+      <c r="AI70" s="38"/>
+      <c r="AJ70" s="38"/>
+      <c r="AK70" s="38"/>
+      <c r="AL70" s="38"/>
+      <c r="AM70" s="38"/>
+      <c r="AN70" s="38"/>
+      <c r="AO70" s="38"/>
+      <c r="AP70" s="38"/>
+      <c r="AQ70" s="38"/>
+      <c r="AR70" s="40"/>
+      <c r="AS70" s="40"/>
+      <c r="AT70" s="40"/>
+      <c r="AU70" s="40"/>
+      <c r="AV70" s="40"/>
+      <c r="AW70" s="38"/>
+      <c r="AX70" s="38"/>
+      <c r="AY70" s="38"/>
+      <c r="AZ70" s="38"/>
+      <c r="BA70" s="38"/>
+      <c r="BB70" s="38"/>
+      <c r="BC70" s="38"/>
+      <c r="BD70" s="38"/>
+      <c r="BE70" s="38"/>
+      <c r="BF70" s="38"/>
+      <c r="BG70" s="41"/>
+      <c r="BH70" s="41"/>
+      <c r="BI70" s="41"/>
+      <c r="BJ70" s="41"/>
+      <c r="BK70" s="41"/>
+      <c r="BL70" s="38"/>
+      <c r="BM70" s="38"/>
+      <c r="BN70" s="38"/>
+      <c r="BO70" s="38"/>
+      <c r="BP70" s="38"/>
+      <c r="BQ70" s="38"/>
+      <c r="BR70" s="38"/>
+      <c r="BS70" s="38"/>
+      <c r="BT70" s="38"/>
+      <c r="BU70" s="38"/>
+      <c r="BV70" s="68"/>
+      <c r="BW70" s="68"/>
+      <c r="BX70" s="68"/>
+      <c r="BY70" s="68"/>
+      <c r="BZ70" s="68"/>
+    </row>
+    <row r="71" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="C71" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="35">
+        <v>45231</v>
+      </c>
+      <c r="F71" s="35">
+        <v>45245</v>
+      </c>
+      <c r="G71" s="36">
+        <f t="shared" ref="G71:G72" si="13">DAYS360(E71,F71)</f>
+        <v>14</v>
+      </c>
+      <c r="H71" s="37"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="38"/>
+      <c r="Z71" s="38"/>
+      <c r="AA71" s="38"/>
+      <c r="AB71" s="38"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="39"/>
+      <c r="AE71" s="39"/>
+      <c r="AF71" s="39"/>
+      <c r="AG71" s="39"/>
+      <c r="AH71" s="38"/>
+      <c r="AI71" s="38"/>
+      <c r="AJ71" s="38"/>
+      <c r="AK71" s="38"/>
+      <c r="AL71" s="38"/>
+      <c r="AM71" s="38"/>
+      <c r="AN71" s="38"/>
+      <c r="AO71" s="38"/>
+      <c r="AP71" s="38"/>
+      <c r="AQ71" s="38"/>
+      <c r="AR71" s="40"/>
+      <c r="AS71" s="40"/>
+      <c r="AT71" s="40"/>
+      <c r="AU71" s="40"/>
+      <c r="AV71" s="40"/>
+      <c r="AW71" s="38"/>
+      <c r="AX71" s="38"/>
+      <c r="AY71" s="38"/>
+      <c r="AZ71" s="38"/>
+      <c r="BA71" s="38"/>
+      <c r="BB71" s="38"/>
+      <c r="BC71" s="38"/>
+      <c r="BD71" s="38"/>
+      <c r="BE71" s="38"/>
+      <c r="BF71" s="38"/>
+      <c r="BG71" s="41"/>
+      <c r="BH71" s="41"/>
+      <c r="BI71" s="41"/>
+      <c r="BJ71" s="41"/>
+      <c r="BK71" s="41"/>
+      <c r="BL71" s="38"/>
+      <c r="BM71" s="38"/>
+      <c r="BN71" s="38"/>
+      <c r="BO71" s="38"/>
+      <c r="BP71" s="38"/>
+      <c r="BQ71" s="38"/>
+      <c r="BR71" s="38"/>
+      <c r="BS71" s="38"/>
+      <c r="BT71" s="38"/>
+      <c r="BU71" s="38"/>
+      <c r="BV71" s="68"/>
+      <c r="BW71" s="68"/>
+      <c r="BX71" s="68"/>
+      <c r="BY71" s="68"/>
+      <c r="BZ71" s="68"/>
+    </row>
+    <row r="72" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="33">
+        <v>5.5</v>
+      </c>
+      <c r="C72" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="35">
+        <v>45245</v>
+      </c>
+      <c r="F72" s="35">
+        <v>45259</v>
+      </c>
+      <c r="G72" s="36">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="H72" s="37"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="39"/>
+      <c r="AD72" s="39"/>
+      <c r="AE72" s="39"/>
+      <c r="AF72" s="39"/>
+      <c r="AG72" s="39"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="38"/>
+      <c r="AM72" s="38"/>
+      <c r="AN72" s="38"/>
+      <c r="AO72" s="38"/>
+      <c r="AP72" s="38"/>
+      <c r="AQ72" s="38"/>
+      <c r="AR72" s="40"/>
+      <c r="AS72" s="40"/>
+      <c r="AT72" s="40"/>
+      <c r="AU72" s="40"/>
+      <c r="AV72" s="40"/>
+      <c r="AW72" s="38"/>
+      <c r="AX72" s="38"/>
+      <c r="AY72" s="38"/>
+      <c r="AZ72" s="38"/>
+      <c r="BA72" s="38"/>
+      <c r="BB72" s="38"/>
+      <c r="BC72" s="38"/>
+      <c r="BD72" s="38"/>
+      <c r="BE72" s="38"/>
+      <c r="BF72" s="38"/>
+      <c r="BG72" s="41"/>
+      <c r="BH72" s="41"/>
+      <c r="BI72" s="41"/>
+      <c r="BJ72" s="41"/>
+      <c r="BK72" s="41"/>
+      <c r="BL72" s="38"/>
+      <c r="BM72" s="38"/>
+      <c r="BN72" s="38"/>
+      <c r="BO72" s="38"/>
+      <c r="BP72" s="38"/>
+      <c r="BQ72" s="38"/>
+      <c r="BR72" s="38"/>
+      <c r="BS72" s="38"/>
+      <c r="BT72" s="38"/>
+      <c r="BU72" s="38"/>
+      <c r="BV72" s="68"/>
+      <c r="BW72" s="68"/>
+      <c r="BX72" s="68"/>
+      <c r="BY72" s="68"/>
+      <c r="BZ72" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -6375,7 +8248,7 @@
     <mergeCell ref="BV9:BZ9"/>
     <mergeCell ref="S9:W9"/>
   </mergeCells>
-  <conditionalFormatting sqref="H11:H17 H19:H53">
+  <conditionalFormatting sqref="H11:H17 H19:H72">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
